--- a/data/hotels_by_city/Houston/Houston_shard_662.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_662.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="401">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d223187-Reviews-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-TownePlace-Suites-Houston-Northwest.h533973.Hotel-Information?chkin=7%2F23%2F2018&amp;chkout=7%2F24%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531699321596&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=8902e68b-d370-406a-88ad-bbb068ee1d7f&amp;mctc=9&amp;exp_dp=129&amp;exp_ts=1531699322197&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,1105 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r589025607-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223187</t>
+  </si>
+  <si>
+    <t>589025607</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>Family vacation needed</t>
+  </si>
+  <si>
+    <t>The stay was horrible to check in Friday ask for extra blankets in my reservation call to make sure and be told I would have extra blankets in the closet come to bedtime there is no extra blankets. So here I have to go to front desk and ask for 3 and be told all she had was 1. Now keep in mind we are 8in total 6 kids, 2 adults. I reserved 2 connecting rooms due to kids. It was easy to moving the sofa bed from one room to the other  so kids could be together and moved table to the other room so we could sit together to eat. Now I check out Sunday at 1pm. I remember today Tuesday I had left behind a gift I was given by a friend we got to see during the weekend it was a picture collage put as a magnet for my refrigerator so I placed it on the refrigerator and when leaving I forgot to take it. I also forgot a pair of earrings on the small table next to bed to window side actual silver hoop earrings. So I call thinking someone had to turned them in and somehow I can have hotel mail them to me even if I pay for mailing devices and I get told somehow for moving furniture I am going to get reported to the hotel I work for now that is...The stay was horrible to check in Friday ask for extra blankets in my reservation call to make sure and be told I would have extra blankets in the closet come to bedtime there is no extra blankets. So here I have to go to front desk and ask for 3 and be told all she had was 1. Now keep in mind we are 8in total 6 kids, 2 adults. I reserved 2 connecting rooms due to kids. It was easy to moving the sofa bed from one room to the other  so kids could be together and moved table to the other room so we could sit together to eat. Now I check out Sunday at 1pm. I remember today Tuesday I had left behind a gift I was given by a friend we got to see during the weekend it was a picture collage put as a magnet for my refrigerator so I placed it on the refrigerator and when leaving I forgot to take it. I also forgot a pair of earrings on the small table next to bed to window side actual silver hoop earrings. So I call thinking someone had to turned them in and somehow I can have hotel mail them to me even if I pay for mailing devices and I get told somehow for moving furniture I am going to get reported to the hotel I work for now that is horrible because now to me it seems like they just want to hide what happened to my earrings. Come on I work for a hotel and moving furniture around is no a bad thing. Now I know for sure I did not damage any walls or anything like the way the hotel told me and accused me.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Margaret H, Director of Sales at TownePlace Suites Houston Northwest, responded to this reviewResponded June 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2018</t>
+  </si>
+  <si>
+    <t>The stay was horrible to check in Friday ask for extra blankets in my reservation call to make sure and be told I would have extra blankets in the closet come to bedtime there is no extra blankets. So here I have to go to front desk and ask for 3 and be told all she had was 1. Now keep in mind we are 8in total 6 kids, 2 adults. I reserved 2 connecting rooms due to kids. It was easy to moving the sofa bed from one room to the other  so kids could be together and moved table to the other room so we could sit together to eat. Now I check out Sunday at 1pm. I remember today Tuesday I had left behind a gift I was given by a friend we got to see during the weekend it was a picture collage put as a magnet for my refrigerator so I placed it on the refrigerator and when leaving I forgot to take it. I also forgot a pair of earrings on the small table next to bed to window side actual silver hoop earrings. So I call thinking someone had to turned them in and somehow I can have hotel mail them to me even if I pay for mailing devices and I get told somehow for moving furniture I am going to get reported to the hotel I work for now that is...The stay was horrible to check in Friday ask for extra blankets in my reservation call to make sure and be told I would have extra blankets in the closet come to bedtime there is no extra blankets. So here I have to go to front desk and ask for 3 and be told all she had was 1. Now keep in mind we are 8in total 6 kids, 2 adults. I reserved 2 connecting rooms due to kids. It was easy to moving the sofa bed from one room to the other  so kids could be together and moved table to the other room so we could sit together to eat. Now I check out Sunday at 1pm. I remember today Tuesday I had left behind a gift I was given by a friend we got to see during the weekend it was a picture collage put as a magnet for my refrigerator so I placed it on the refrigerator and when leaving I forgot to take it. I also forgot a pair of earrings on the small table next to bed to window side actual silver hoop earrings. So I call thinking someone had to turned them in and somehow I can have hotel mail them to me even if I pay for mailing devices and I get told somehow for moving furniture I am going to get reported to the hotel I work for now that is horrible because now to me it seems like they just want to hide what happened to my earrings. Come on I work for a hotel and moving furniture around is no a bad thing. Now I know for sure I did not damage any walls or anything like the way the hotel told me and accused me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r583649575-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>583649575</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Weekend stay</t>
+  </si>
+  <si>
+    <t>Stayed as part of a large group in town for a soccer tournament over Memorial Day weekend.  Originally booked a 2 bedroom suite, but when got to the room, the AC was not working and was told it would not be fixed that day.  Unfortunately, there were not other rooms like that available so they moved us to adjoining rooms just down the hall which worked out great.  Staff was very accommodating...allowing us to use the breakfast room for team meetings and keeping the breakfast stocked for a group of very hungry soccer players.  We used the grills one night for a cookout around the pool and they worked well.  Also gave us a late checkout so we could shower after the last game before heading home.  Overall a great stay and would definitely recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Margaret H, Public Relations Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded May 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2018</t>
+  </si>
+  <si>
+    <t>Stayed as part of a large group in town for a soccer tournament over Memorial Day weekend.  Originally booked a 2 bedroom suite, but when got to the room, the AC was not working and was told it would not be fixed that day.  Unfortunately, there were not other rooms like that available so they moved us to adjoining rooms just down the hall which worked out great.  Staff was very accommodating...allowing us to use the breakfast room for team meetings and keeping the breakfast stocked for a group of very hungry soccer players.  We used the grills one night for a cookout around the pool and they worked well.  Also gave us a late checkout so we could shower after the last game before heading home.  Overall a great stay and would definitely recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r575000681-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>575000681</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t>Family event</t>
+  </si>
+  <si>
+    <t>We recently stayed at this TownPlace hotel and we were very satisfied with the accommodations. My grandson said the bed was so comfortable! The breakfast options were good as was the supply. It was off the highway so it was very quiet. Would recommend to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Margaret H, Public Relations Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded April 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2018</t>
+  </si>
+  <si>
+    <t>We recently stayed at this TownPlace hotel and we were very satisfied with the accommodations. My grandson said the bed was so comfortable! The breakfast options were good as was the supply. It was off the highway so it was very quiet. Would recommend to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r566100314-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566100314</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>Larger Family - great option</t>
+  </si>
+  <si>
+    <t>We had 6 people going on a cruise and needed a hotel to stay at the night before.  This hotel isn't close to any airports, so you will need an Uber or a rental car.  But, with the ability to fit all 6 in one room, it's worth it.We had the 2 room suite, with two separate rooms.  With the bathroom off the kitchen area, it worked perfectly!  The kitchen and sitting area were a good size and we never felt cramped.The breakfast buffet often ran out of items - waffle batter, oatmeal, eggs, etc and the room for the buffet is very very small - way too small for the large two building hotel that it is.Location - you can walk to McD's, Target and KFC. Staff was super friendly and helpful and happy.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Margaret H, Director of Sales at TownePlace Suites Houston Northwest, responded to this reviewResponded March 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2018</t>
+  </si>
+  <si>
+    <t>We had 6 people going on a cruise and needed a hotel to stay at the night before.  This hotel isn't close to any airports, so you will need an Uber or a rental car.  But, with the ability to fit all 6 in one room, it's worth it.We had the 2 room suite, with two separate rooms.  With the bathroom off the kitchen area, it worked perfectly!  The kitchen and sitting area were a good size and we never felt cramped.The breakfast buffet often ran out of items - waffle batter, oatmeal, eggs, etc and the room for the buffet is very very small - way too small for the large two building hotel that it is.Location - you can walk to McD's, Target and KFC. Staff was super friendly and helpful and happy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r545586799-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>545586799</t>
+  </si>
+  <si>
+    <t>12/06/2017</t>
+  </si>
+  <si>
+    <t>Welcomed Victims of Harvey</t>
+  </si>
+  <si>
+    <t>The management of this Motel should be given a medal for the way they welcomed and treated all their guest but especially the displaced victims of Harvey.They have gone above and beyond to make us feel as comfortable as possible even though they are fully booked and sometimes short of staff.They provide breakfast every day and dinner two days per week. The rooms are serviced daily and tha facility is clean.All the staff from housekeeping to management are hard working and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>General  M, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded December 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2017</t>
+  </si>
+  <si>
+    <t>The management of this Motel should be given a medal for the way they welcomed and treated all their guest but especially the displaced victims of Harvey.They have gone above and beyond to make us feel as comfortable as possible even though they are fully booked and sometimes short of staff.They provide breakfast every day and dinner two days per week. The rooms are serviced daily and tha facility is clean.All the staff from housekeeping to management are hard working and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r545342403-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>545342403</t>
+  </si>
+  <si>
+    <t>12/05/2017</t>
+  </si>
+  <si>
+    <t>Good Place for the Price</t>
+  </si>
+  <si>
+    <t>We booked the two bedroom suite for two nights.  We checked in late on Friday and the lady at the desk was very nice.  The rooms were spacious.  The bathroom was small, but it meet our needs.  The breakfast is not the best and the breakfast area is too small.  If you want to get yogurt, waffles, bagel, eggs, juice and one meat choice, for breakfast, this is the place for you. The area was nice and we felt safe. Near shopping area.  20 mins to  NRG Stadium and  The Galleria Mall.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>We booked the two bedroom suite for two nights.  We checked in late on Friday and the lady at the desk was very nice.  The rooms were spacious.  The bathroom was small, but it meet our needs.  The breakfast is not the best and the breakfast area is too small.  If you want to get yogurt, waffles, bagel, eggs, juice and one meat choice, for breakfast, this is the place for you. The area was nice and we felt safe. Near shopping area.  20 mins to  NRG Stadium and  The Galleria Mall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r527456630-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>527456630</t>
+  </si>
+  <si>
+    <t>09/25/2017</t>
+  </si>
+  <si>
+    <t>Just OK</t>
+  </si>
+  <si>
+    <t>I have to admit, this was not the best time to stay at this Hotel. Houston has flooded and lots of people are here because of the flooding. Both displaced home owners and workers helping with the disaster, but come on this is a Marriott property. The front should be manned and I should not stand around for 15 minutes hoping  someone would come to check me in. Food at breakfast should not be totally gone mid service. Room was OK and we had a fine stay, just really surprised to see how the hotel was run. Frustrating to not be able to get a cup of coffee or even a muffin at breakfast the first morning. Got to give them a little leeway  on this, but really sad to see the hotel struggle so much to meet guests needs. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Margaret H, Guest Relations Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded September 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2017</t>
+  </si>
+  <si>
+    <t>I have to admit, this was not the best time to stay at this Hotel. Houston has flooded and lots of people are here because of the flooding. Both displaced home owners and workers helping with the disaster, but come on this is a Marriott property. The front should be manned and I should not stand around for 15 minutes hoping  someone would come to check me in. Food at breakfast should not be totally gone mid service. Room was OK and we had a fine stay, just really surprised to see how the hotel was run. Frustrating to not be able to get a cup of coffee or even a muffin at breakfast the first morning. Got to give them a little leeway  on this, but really sad to see the hotel struggle so much to meet guests needs. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r498412001-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>498412001</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>Great family hotel</t>
+  </si>
+  <si>
+    <t>We are a family of two adults and three kids.  We rented the two bedroom apartment.  The room was huge.  So convenient,  one of the few hotels we stayed and could take a good night sleep as everyone had their own room. The attendant was so nice.  Gave us a room in the first room as we preferred.  Breakfast was pretty good. The hotel also has a nice small pool,  which our kids had almost for themselves most of the time. Amazing value for money.  This became our favorite hotel in Houston.  MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Margaret H, Director of Sales at TownePlace Suites Houston Northwest, responded to this reviewResponded July 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2017</t>
+  </si>
+  <si>
+    <t>We are a family of two adults and three kids.  We rented the two bedroom apartment.  The room was huge.  So convenient,  one of the few hotels we stayed and could take a good night sleep as everyone had their own room. The attendant was so nice.  Gave us a room in the first room as we preferred.  Breakfast was pretty good. The hotel also has a nice small pool,  which our kids had almost for themselves most of the time. Amazing value for money.  This became our favorite hotel in Houston.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r494671200-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>494671200</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>I was so pleasantly surprised with this hotel!  We live in Houston, but wanted to get away so the kids could swim for Father's Day weekend and we booked the 2 bedroom suite.  It was so spacious, so realaxing and very comfortable.  The pool was very well upkept and the breakfast had a great selection.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Margaret H, Director of Sales at TownePlace Suites Houston Northwest, responded to this reviewResponded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2017</t>
+  </si>
+  <si>
+    <t>I was so pleasantly surprised with this hotel!  We live in Houston, but wanted to get away so the kids could swim for Father's Day weekend and we booked the 2 bedroom suite.  It was so spacious, so realaxing and very comfortable.  The pool was very well upkept and the breakfast had a great selection.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r455707239-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>455707239</t>
+  </si>
+  <si>
+    <t>01/29/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel staff name Valleen made our stay awesome she took very good care of us and the rooms were excellent vey clean and were like a apartment. I really recommend this hotel for your next stay when you have any business trip or vacation stay </t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r454783590-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>454783590</t>
+  </si>
+  <si>
+    <t>01/25/2017</t>
+  </si>
+  <si>
+    <t>Excellent Hotel!</t>
+  </si>
+  <si>
+    <t>Maintenance men who empty garbage and tend to outside grounds, very nice and professional. Manager and office staff VERY professional and accommodating. Our needs were addressed quickly  and professionally! kitchen workers very friendly and professional. We enjoyed our stay and will ALWAYS remember "TownePlace" in the future!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r435733721-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>435733721</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t>Seemed decent</t>
+  </si>
+  <si>
+    <t>In Houston at TownPlace suite. Per Marriott properties clean and seemingly safe. However, they have an issue with bugs apparently. Found the guy below in my kitchenette sink. I would rate 1 circle but the young lady who came with spray was prompt and nice. Marriott please fix this issue. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>TPSHOUTN, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded November 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2016</t>
+  </si>
+  <si>
+    <t>In Houston at TownPlace suite. Per Marriott properties clean and seemingly safe. However, they have an issue with bugs apparently. Found the guy below in my kitchenette sink. I would rate 1 circle but the young lady who came with spray was prompt and nice. Marriott please fix this issue. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r406804206-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>406804206</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>Perfect for my needs</t>
+  </si>
+  <si>
+    <t>Stayed here on business for a week and this was perfect for me.  I purchased groceries at the HEB and used the Kitchen for dinner to save money.  the bed was comfortable and the room was clean and large (Like a 1 bedroom efficiency apartment.  I would stay here again.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r396451669-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>396451669</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>Great Location, Friendly Staff, but Lacking Some Important Amenities</t>
+  </si>
+  <si>
+    <t>We stayed at TownePlace Suites for four nights in July, 2016, when in town to visit family.  We chose TownePlace Suites based exclusively on location.  It has easy access to the Tomball Expressway, is close to shops, and also close to many residential neighborhoods.  So, the location and ease of getting in and out of the facility is a definite plus.
+We found staff to be both friendly and helpful.  However, some amenities were lacking.
+First, the pool was not safe to swim in and this was not posted or announced.  I love to swim when I travel and usually enjoy morning swims.  The morning I went over, I noticed that the water was too green and unusually cloudy.  The pool was undergoing maintenance, so I sat down to wait a few minutes until the maintenance staff had done their work.  However, in a casual conversation, I learned that the person who normally treats the water with chlorine had been out and the person covering had not treated the water in several days.  No wonder it was cloudy!  I did not swim that day or any of the other days because I could not see an improvement in the water.  To lose the ability to swim in a hot Texas summer was extremely disappointing.
+Also a concern was the level of noise.  The children and guests were fine, the problem was the dogs.  During our stay we encountered several families...We stayed at TownePlace Suites for four nights in July, 2016, when in town to visit family.  We chose TownePlace Suites based exclusively on location.  It has easy access to the Tomball Expressway, is close to shops, and also close to many residential neighborhoods.  So, the location and ease of getting in and out of the facility is a definite plus.We found staff to be both friendly and helpful.  However, some amenities were lacking.First, the pool was not safe to swim in and this was not posted or announced.  I love to swim when I travel and usually enjoy morning swims.  The morning I went over, I noticed that the water was too green and unusually cloudy.  The pool was undergoing maintenance, so I sat down to wait a few minutes until the maintenance staff had done their work.  However, in a casual conversation, I learned that the person who normally treats the water with chlorine had been out and the person covering had not treated the water in several days.  No wonder it was cloudy!  I did not swim that day or any of the other days because I could not see an improvement in the water.  To lose the ability to swim in a hot Texas summer was extremely disappointing.Also a concern was the level of noise.  The children and guests were fine, the problem was the dogs.  During our stay we encountered several families with multiple dogs, some of them quite large.   The dogs were kept in the hotel rooms during the day and barked frequently if the owners were not there.  If you are a dog owner and lover, as many people are, this might be a plus.  However, we value quiet and the noise level became uncomfortable.Breakfasts, included in the price of the room, were reasonably good.  Every day there was either hot oatmeal or grits, sausage and eggs or bacon and eggs, cereals, milk, yogurts, fresh fruit, bagel and muffins, juices, and coffee and teas.  There was a also a waffle making station and a very cheery breakfast staff.  Breakfasts were wholesome and hearty and I did appreciate this good service.Overall I found TownePlace Suites to be quite nice, but the problem with the pool and loud dogs were definite detractors on this trip.  I will try again and would recommend it, but ask to be in a dog-free section of the hotel if you need to concentrate or get any work done.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>TPSHOUTN, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at TownePlace Suites for four nights in July, 2016, when in town to visit family.  We chose TownePlace Suites based exclusively on location.  It has easy access to the Tomball Expressway, is close to shops, and also close to many residential neighborhoods.  So, the location and ease of getting in and out of the facility is a definite plus.
+We found staff to be both friendly and helpful.  However, some amenities were lacking.
+First, the pool was not safe to swim in and this was not posted or announced.  I love to swim when I travel and usually enjoy morning swims.  The morning I went over, I noticed that the water was too green and unusually cloudy.  The pool was undergoing maintenance, so I sat down to wait a few minutes until the maintenance staff had done their work.  However, in a casual conversation, I learned that the person who normally treats the water with chlorine had been out and the person covering had not treated the water in several days.  No wonder it was cloudy!  I did not swim that day or any of the other days because I could not see an improvement in the water.  To lose the ability to swim in a hot Texas summer was extremely disappointing.
+Also a concern was the level of noise.  The children and guests were fine, the problem was the dogs.  During our stay we encountered several families...We stayed at TownePlace Suites for four nights in July, 2016, when in town to visit family.  We chose TownePlace Suites based exclusively on location.  It has easy access to the Tomball Expressway, is close to shops, and also close to many residential neighborhoods.  So, the location and ease of getting in and out of the facility is a definite plus.We found staff to be both friendly and helpful.  However, some amenities were lacking.First, the pool was not safe to swim in and this was not posted or announced.  I love to swim when I travel and usually enjoy morning swims.  The morning I went over, I noticed that the water was too green and unusually cloudy.  The pool was undergoing maintenance, so I sat down to wait a few minutes until the maintenance staff had done their work.  However, in a casual conversation, I learned that the person who normally treats the water with chlorine had been out and the person covering had not treated the water in several days.  No wonder it was cloudy!  I did not swim that day or any of the other days because I could not see an improvement in the water.  To lose the ability to swim in a hot Texas summer was extremely disappointing.Also a concern was the level of noise.  The children and guests were fine, the problem was the dogs.  During our stay we encountered several families with multiple dogs, some of them quite large.   The dogs were kept in the hotel rooms during the day and barked frequently if the owners were not there.  If you are a dog owner and lover, as many people are, this might be a plus.  However, we value quiet and the noise level became uncomfortable.Breakfasts, included in the price of the room, were reasonably good.  Every day there was either hot oatmeal or grits, sausage and eggs or bacon and eggs, cereals, milk, yogurts, fresh fruit, bagel and muffins, juices, and coffee and teas.  There was a also a waffle making station and a very cheery breakfast staff.  Breakfasts were wholesome and hearty and I did appreciate this good service.Overall I found TownePlace Suites to be quite nice, but the problem with the pool and loud dogs were definite detractors on this trip.  I will try again and would recommend it, but ask to be in a dog-free section of the hotel if you need to concentrate or get any work done.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r379153980-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>379153980</t>
+  </si>
+  <si>
+    <t>06/02/2016</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel</t>
+  </si>
+  <si>
+    <t>Location is convenient.  Currently replacing the furniture with new, modern furnishings.Beds are comfy, separate room for the breakfast.  Speakman Shower heads, love those, best shower ever.  small kitchen is really helpful.  we would stay here again.we also a two bed suite at the end of the hall</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r373075140-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>373075140</t>
+  </si>
+  <si>
+    <t>05/15/2016</t>
+  </si>
+  <si>
+    <t>4 days, 3 nights-No housekeeping service</t>
+  </si>
+  <si>
+    <t>We asked twice on different days for housekeeping service and some fresh towels but they never came by. We saw the housekeeping service working in the other rooms but they never would get to ours. Finally on day 3 we begged some fresh towels from the front desk. Not fun. MoreShow less</t>
+  </si>
+  <si>
+    <t>TPSHOUTN, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded May 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2016</t>
+  </si>
+  <si>
+    <t>We asked twice on different days for housekeeping service and some fresh towels but they never came by. We saw the housekeeping service working in the other rooms but they never would get to ours. Finally on day 3 we begged some fresh towels from the front desk. Not fun. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r353360169-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>353360169</t>
+  </si>
+  <si>
+    <t>03/06/2016</t>
+  </si>
+  <si>
+    <t>Low quality, no respect for customers</t>
+  </si>
+  <si>
+    <t>First time stay in TownePlace branded Marriott hotel. When arrived hotel in the night, it was very hard to find the main entrance. eventually got in, but nowhere for front desk staff, the build designing is also total mess, hard to find the path to the room…Another very disappointed, this hotel totally lack of any respects for the  hotel customer, in the earlier morning breakfast time (around 8:30am), the cleaning staffs’ carts and staffs blocked the paths and door way to the breakfast room, why not pay just a little respects for the customers to let do cleaning job just some later time ?MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2016</t>
+  </si>
+  <si>
+    <t>First time stay in TownePlace branded Marriott hotel. When arrived hotel in the night, it was very hard to find the main entrance. eventually got in, but nowhere for front desk staff, the build designing is also total mess, hard to find the path to the room…Another very disappointed, this hotel totally lack of any respects for the  hotel customer, in the earlier morning breakfast time (around 8:30am), the cleaning staffs’ carts and staffs blocked the paths and door way to the breakfast room, why not pay just a little respects for the customers to let do cleaning job just some later time ?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r335776696-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>335776696</t>
+  </si>
+  <si>
+    <t>12/29/2015</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>Clean and comfortable for four adults. It is near lots of places to eat, breakfast was fine, and the Texas shaped waffles were fun. There is also easy parking and entry for handicapped patrons. Trip advisor should be less picky about length of review. It's annoying to have to keep typing</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r328923084-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>328923084</t>
+  </si>
+  <si>
+    <t>11/24/2015</t>
+  </si>
+  <si>
+    <t>Good hotel with nice kitchen facilities</t>
+  </si>
+  <si>
+    <t>30 mins from George Bush airport. Rooms are clean, comfortable. Free wifi.  Paid wi fi is also available if you want very high speed, but I suggest not required at all.It has nice kitchen, you can make your food and also heat. Microwave, Brewer, Freeze-all available.Within 5 mins walk and drive, 2 Food zones are available where you will get all types food ( Indian too), Walmart is max 10 mins drive.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r328610500-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>328610500</t>
+  </si>
+  <si>
+    <t>11/23/2015</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>Stayed here for one night in their two bedroom suite.  Everything was in working order, nice spacious unit.  Comfortable beds and well equipped full kitchen.  Staff was very pleasant.  Breakfast was above average.  My only issues, I found hair in the shower the WiFi wasn't working and it would be nice if the unit had two bathrooms.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r275012189-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275012189</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>DJBOWLS</t>
+  </si>
+  <si>
+    <t>Well the most annoying thing about this hotel is every time a storm rolls through the power goes out for hours....what kind of hotel doesn't have back up generators? Plus I was on the 4th floor so I had to walk up 4 flights of stairs with a bad knee.  Housekeeping would very incompatantly not leave extra toilet paper and the dishwasher leaked water all over the kitchen floor!!  Also agree with the breakfast area being so small with crap tons of people in it!!  The staff was polite and friendly but that was about the only positive!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Chris G, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded May 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2015</t>
+  </si>
+  <si>
+    <t>Well the most annoying thing about this hotel is every time a storm rolls through the power goes out for hours....what kind of hotel doesn't have back up generators? Plus I was on the 4th floor so I had to walk up 4 flights of stairs with a bad knee.  Housekeeping would very incompatantly not leave extra toilet paper and the dishwasher leaked water all over the kitchen floor!!  Also agree with the breakfast area being so small with crap tons of people in it!!  The staff was polite and friendly but that was about the only positive!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r260337173-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260337173</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>Good for our requirements</t>
+  </si>
+  <si>
+    <t>First off, this is not a 4 or 5* Marriott hotel. It's 3* self catering suites and anyone expecting the 2 experiences to be the same just hasn't done their homework. We knew what to expect and were relatively happy overall. We stayed 5 nights, had a 2 bed suite for 3 of us, and were there as a larger party for a family wedding. Bedrooms were an ok size, comfortable beds and plenty of storage space. The bathroom was on the small size but adequate. The kitchen was perfectly functional if basic. There's a very small gym but luckily no-one else was using it when I was there. Our major gripe was the breakfast and where it's eaten. The space is just not large enough for the number of rooms. This is more of an issue as there isn't another general seating area for people to meet. Most days we picked up food and brought it back to the room to cook/eat. Had to wait or go find staff to replenish items most days and i saw  unsupervised children handling food and putting it back on display.  However, as we'd paid a preferential rate because of the wedding for 4 of the nights I think we got value for money.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>First off, this is not a 4 or 5* Marriott hotel. It's 3* self catering suites and anyone expecting the 2 experiences to be the same just hasn't done their homework. We knew what to expect and were relatively happy overall. We stayed 5 nights, had a 2 bed suite for 3 of us, and were there as a larger party for a family wedding. Bedrooms were an ok size, comfortable beds and plenty of storage space. The bathroom was on the small size but adequate. The kitchen was perfectly functional if basic. There's a very small gym but luckily no-one else was using it when I was there. Our major gripe was the breakfast and where it's eaten. The space is just not large enough for the number of rooms. This is more of an issue as there isn't another general seating area for people to meet. Most days we picked up food and brought it back to the room to cook/eat. Had to wait or go find staff to replenish items most days and i saw  unsupervised children handling food and putting it back on display.  However, as we'd paid a preferential rate because of the wedding for 4 of the nights I think we got value for money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r259651586-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>259651586</t>
+  </si>
+  <si>
+    <t>03/15/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice and quiet </t>
+  </si>
+  <si>
+    <t>This hotel was very nice. Set back from main road we didnt hear any noises. We were behind target and did get the lights from target in our window. Even with shades closed. The bedding was very nice and very comfortable. The sofa bed was also very comfortable. Very hot water but bathroom was kindof dark. The kitchen was nice but it seemed some dishes had been taken. We had four plates yet two glasses?. Front desk was nice and very helpful when our ac went out. Lucky it wasnt so hot that night. Thought the front desk could have communicated better with when it would be serviced on but it was ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was very nice. Set back from main road we didnt hear any noises. We were behind target and did get the lights from target in our window. Even with shades closed. The bedding was very nice and very comfortable. The sofa bed was also very comfortable. Very hot water but bathroom was kindof dark. The kitchen was nice but it seemed some dishes had been taken. We had four plates yet two glasses?. Front desk was nice and very helpful when our ac went out. Lucky it wasnt so hot that night. Thought the front desk could have communicated better with when it would be serviced on but it was ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r253662168-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>253662168</t>
+  </si>
+  <si>
+    <t>02/11/2015</t>
+  </si>
+  <si>
+    <t>Efficiency Room</t>
+  </si>
+  <si>
+    <t>2 bedroom, 1 bath with full kitchen, and a sofa sleeper - very convenient for our family.  It would be better if there were 2 bedroom suites with 2 baths.  We asked for additional towels and bathroom necessities.  These were provided promptly and with a 'NO PROBLEM'.  Breakfast is included, it was the usual small buffet breakfast.  Would be great if the small omelets came without the ham for us vegetarians or non-meat eaters.  Seriously, the tiny little cubes of ham are so small who could have tasted that anyway. Suggestion - get individually wrapped raisins/nuts for the oatmeal bar.  I saw many HANDS in those bowls instead of using spoon provided to serve portions for the oatmeal.  Secondly MOVE the oatmeal location, it was sandwiched in between the meat hotplate and the eggs and the brown sugar, raisins, and nuts crammed in there too.  Breakfast room at this location is entirely too small.  Our room was clean, the furniture was dated.  Linens and bedding were clean and VERY comfortable. Fold out couch in the living room needs to be replaced.  Small, very small, business center right in the middle of the entrance.  No privacy there whatsoever. Still, for short term stay, this is a good location and property.  Certainly not the best I have ever been in but adequate.  The property could use an update.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Chris G, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded February 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2015</t>
+  </si>
+  <si>
+    <t>2 bedroom, 1 bath with full kitchen, and a sofa sleeper - very convenient for our family.  It would be better if there were 2 bedroom suites with 2 baths.  We asked for additional towels and bathroom necessities.  These were provided promptly and with a 'NO PROBLEM'.  Breakfast is included, it was the usual small buffet breakfast.  Would be great if the small omelets came without the ham for us vegetarians or non-meat eaters.  Seriously, the tiny little cubes of ham are so small who could have tasted that anyway. Suggestion - get individually wrapped raisins/nuts for the oatmeal bar.  I saw many HANDS in those bowls instead of using spoon provided to serve portions for the oatmeal.  Secondly MOVE the oatmeal location, it was sandwiched in between the meat hotplate and the eggs and the brown sugar, raisins, and nuts crammed in there too.  Breakfast room at this location is entirely too small.  Our room was clean, the furniture was dated.  Linens and bedding were clean and VERY comfortable. Fold out couch in the living room needs to be replaced.  Small, very small, business center right in the middle of the entrance.  No privacy there whatsoever. Still, for short term stay, this is a good location and property.  Certainly not the best I have ever been in but adequate.  The property could use an update.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r242550630-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>242550630</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>Nice and quiet hotel</t>
+  </si>
+  <si>
+    <t>This hotel is very clean and organized. Rooms are big and have everything we need for a confortable stay (TV, Coffe maker, Hair dryer, Fridge, cooking utensils, plastic containers, etc). It has a very nice desk and a good internet conection in order to work from the hotel or just surf. As a recommendation I will suggest to fix the issue with the frigde and the noise that this one make. TV angle is OK because as is a movible base you can adjust it to the place in the room where you are, specially good if you are working on the desk.Is near to a Mac Donalds, TARGET, Subway, Dominos Pizza, Good Will, Donuts, Mexican Restaurant, and some others clothes stores.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Chris G, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded December 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2014</t>
+  </si>
+  <si>
+    <t>This hotel is very clean and organized. Rooms are big and have everything we need for a confortable stay (TV, Coffe maker, Hair dryer, Fridge, cooking utensils, plastic containers, etc). It has a very nice desk and a good internet conection in order to work from the hotel or just surf. As a recommendation I will suggest to fix the issue with the frigde and the noise that this one make. TV angle is OK because as is a movible base you can adjust it to the place in the room where you are, specially good if you are working on the desk.Is near to a Mac Donalds, TARGET, Subway, Dominos Pizza, Good Will, Donuts, Mexican Restaurant, and some others clothes stores.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r240294995-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>240294995</t>
+  </si>
+  <si>
+    <t>11/17/2014</t>
+  </si>
+  <si>
+    <t>No Complaints-Nice Clean Room Met My Needs</t>
+  </si>
+  <si>
+    <t>I attended a birthday celebration for a friend in Cypress and booked the 2 bedroom suite which is like a small apartment. I was quite pleased with the room-it was clean and the front desk was very helpful in getting a cab for us.  I checked in and out with no problems whatsoever. Parking was convenient. My only complaint was the waffle machine was broken and I wanted waffles! Other than that, it was a great stay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r231272427-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>231272427</t>
+  </si>
+  <si>
+    <t>09/27/2014</t>
+  </si>
+  <si>
+    <t>Met my needs, average</t>
+  </si>
+  <si>
+    <t>Service at checkin was good.  Not sure how it is trying to be Eco friendly when we got into the room and the A/C was set at 60 degrees.  Breakfast was so so.  A lot of street noise, but was too tired to care this visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Chris G, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded September 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2014</t>
+  </si>
+  <si>
+    <t>Service at checkin was good.  Not sure how it is trying to be Eco friendly when we got into the room and the A/C was set at 60 degrees.  Breakfast was so so.  A lot of street noise, but was too tired to care this visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r199777930-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199777930</t>
+  </si>
+  <si>
+    <t>04/03/2014</t>
+  </si>
+  <si>
+    <t>Clean, good location for my needs</t>
+  </si>
+  <si>
+    <t>The entire facility, and my room for sure, were quite clean, furnished well with new furniture and accessories in good condition.  Room was spacious and comfortable.  I certainly didn't run into some of the items mentioned in the poorer reviews.  (I know they mentioned some things beyond this, but part of it seems to be that the whole point of having a range of property brands is to have higher and lower end brands, some as full-service hotels, some for long-range stays, etc.  I expect a TownePlace suites to be well run, comfortable, and functional, but I don't expect it to be a full-service Marriott hotel.)  This property met or exceeded my expectations.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Chris G, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded April 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2014</t>
+  </si>
+  <si>
+    <t>The entire facility, and my room for sure, were quite clean, furnished well with new furniture and accessories in good condition.  Room was spacious and comfortable.  I certainly didn't run into some of the items mentioned in the poorer reviews.  (I know they mentioned some things beyond this, but part of it seems to be that the whole point of having a range of property brands is to have higher and lower end brands, some as full-service hotels, some for long-range stays, etc.  I expect a TownePlace suites to be well run, comfortable, and functional, but I don't expect it to be a full-service Marriott hotel.)  This property met or exceeded my expectations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r199274062-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199274062</t>
+  </si>
+  <si>
+    <t>03/30/2014</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>After reading the mixed reviews here about this property, I was a little apprehensive about my stay here. But that It is not the case!I have stayed in several Towneplace suites properties throughout the country so I know what to expect and this property did not disappoint.. We stayed here for 3 weeks in a 2 bedroom suite. We stayed in the fourth floor at the opposite end from the freeway. There freeway noise is only noticeable if the windows are open. The place overall is very clean. The breakfast is pretty good which includes hot breakfast choices like scrambled eggs, bacon or sausages. It is true that the sofas in the living room are somewhat worn out, but we didn't mind it very much. Everything was as expected, clean and simple. The staff were friendly and helpful. We would certainly stay at this property again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Chris G, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded March 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2014</t>
+  </si>
+  <si>
+    <t>After reading the mixed reviews here about this property, I was a little apprehensive about my stay here. But that It is not the case!I have stayed in several Towneplace suites properties throughout the country so I know what to expect and this property did not disappoint.. We stayed here for 3 weeks in a 2 bedroom suite. We stayed in the fourth floor at the opposite end from the freeway. There freeway noise is only noticeable if the windows are open. The place overall is very clean. The breakfast is pretty good which includes hot breakfast choices like scrambled eggs, bacon or sausages. It is true that the sofas in the living room are somewhat worn out, but we didn't mind it very much. Everything was as expected, clean and simple. The staff were friendly and helpful. We would certainly stay at this property again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r191951259-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>191951259</t>
+  </si>
+  <si>
+    <t>01/24/2014</t>
+  </si>
+  <si>
+    <t>more like a motel and nothing like a Marriott!</t>
+  </si>
+  <si>
+    <t>I would like to start by saying that we are platinum members with Marriott and spend 90 plus nights a year in there properties. This "hotel" misses the mark completely. We had a two week stay. I will divide my review by areas vs one long review of everything mixed together.
+The Front Desk: no one is ever at the front desk, you kind of have to walk up there and say "hello" and someone will come walking out from the back somewhere. The front desk staff is also very uninformed about things to do around the area and also the normal day to day operations of the hotel (but more on that later) Over all they didn't seem very professional. 
+The room: I will include some pictures but the room is beyond run down (thats where the whole "motel" thing comes from) just old, dated and in bad shape. It appears they put in newer appliances in the kitchen but everything else was neglected. The furniture was torn, strained and dented in the living room. The bedrooms had the worse mattresses I have ever slept on (its definitely not a Marriott mattress) The mattress would just sink when you slept on it and the linens were cheap and some did not even match. The room was described on the website as a bedroom/ 2 bathroom but it was only one very small bathroom, very very small. In the kitchen...I would like to start by saying that we are platinum members with Marriott and spend 90 plus nights a year in there properties. This "hotel" misses the mark completely. We had a two week stay. I will divide my review by areas vs one long review of everything mixed together.The Front Desk: no one is ever at the front desk, you kind of have to walk up there and say "hello" and someone will come walking out from the back somewhere. The front desk staff is also very uninformed about things to do around the area and also the normal day to day operations of the hotel (but more on that later) Over all they didn't seem very professional. The room: I will include some pictures but the room is beyond run down (thats where the whole "motel" thing comes from) just old, dated and in bad shape. It appears they put in newer appliances in the kitchen but everything else was neglected. The furniture was torn, strained and dented in the living room. The bedrooms had the worse mattresses I have ever slept on (its definitely not a Marriott mattress) The mattress would just sink when you slept on it and the linens were cheap and some did not even match. The room was described on the website as a bedroom/ 2 bathroom but it was only one very small bathroom, very very small. In the kitchen they provided dish washing liquid but no sponge or scrub (what do they expect you to use?) I picked one up at the grocery store. The Hotel kitchen/ Kitchen staff: This was by far the worse. The staff is not just unprofessional but rude to boot. On more than a few mornings they ran out of food 30 to 40 mins before breakfast was over. This is a sample of one of the conversations I had "excuse me ma'am are you bringing out anymore omelets ? no we ran out . you ran out? theres like 40 minutes left? yeah a lot of people came to breakfast today we weren't expecting so many. (You think they would know how many rooms are occupied at the hotel) umm ok .. ma'am theres no waffles, are you getting any? no no waffles today. (thats ok I will just have a bagel) ma'am, there no bagels and no bread of any kind actually, is there any in the back? no we ran out of that too. (oh I see cereal, I will have cereal) oh ma'am , is there any milk left to have with cereal? no we ran out. well what do you have? We have some pancakes left. I replied with I don't like pancakes is there anything else you can dig up? she replies with "everybody like pancakes" and walks away (which is funny because I just told her I didn't like pancakes so obviously not everyone likes pancakes) So I had juice for breakfast. The quality of the food in general when they did have it was horrible, just standard microwave fair. On tuesdays and Wednesday's they host 2 hour or so "cocktail" type thing where they provide beer and wine along with some sort of appetizer. We weren't even informed of this until we saw it written on a board and inquired with the front desk. so on wednesday  nov 27, We made our way downstairs for the "cocktail hour thing" and instead of it being open there was a sign that said something along the lines of "no snack today because of the holiday". I walked to the front desk and asked what happen to appetizer night (looking as to how the holiday was the following evening I don't understand how that would prevent this thing from being hosted) he again repeated the holiday thing, which made no sense. Thursday was thanksgiving and we were hosting some family so we didn't use many services that day. On friday morning I woke up for breakfast and instead of it being open there is a sign that said breakfast has been delayed due to the holiday (the holiday was yesterday and how long can they use this excuse for?) no breakfast (again) The kitchen staff seemed very bothered by the fact that people where there everyday eating food. When it was decided that services would be closed or delayed they could of  slid a paper with that information under guest doors so that people can plan accordantly .The only positive thing here is that the location of this hotel is amazing. Right off a mayor highway and near more restaurants and shops than you will ever need.I would never stay at this hotel again nor would I recommend it to anyone. I can't believe its even associated with Marriott.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Chris G, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded January 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2014</t>
+  </si>
+  <si>
+    <t>I would like to start by saying that we are platinum members with Marriott and spend 90 plus nights a year in there properties. This "hotel" misses the mark completely. We had a two week stay. I will divide my review by areas vs one long review of everything mixed together.
+The Front Desk: no one is ever at the front desk, you kind of have to walk up there and say "hello" and someone will come walking out from the back somewhere. The front desk staff is also very uninformed about things to do around the area and also the normal day to day operations of the hotel (but more on that later) Over all they didn't seem very professional. 
+The room: I will include some pictures but the room is beyond run down (thats where the whole "motel" thing comes from) just old, dated and in bad shape. It appears they put in newer appliances in the kitchen but everything else was neglected. The furniture was torn, strained and dented in the living room. The bedrooms had the worse mattresses I have ever slept on (its definitely not a Marriott mattress) The mattress would just sink when you slept on it and the linens were cheap and some did not even match. The room was described on the website as a bedroom/ 2 bathroom but it was only one very small bathroom, very very small. In the kitchen...I would like to start by saying that we are platinum members with Marriott and spend 90 plus nights a year in there properties. This "hotel" misses the mark completely. We had a two week stay. I will divide my review by areas vs one long review of everything mixed together.The Front Desk: no one is ever at the front desk, you kind of have to walk up there and say "hello" and someone will come walking out from the back somewhere. The front desk staff is also very uninformed about things to do around the area and also the normal day to day operations of the hotel (but more on that later) Over all they didn't seem very professional. The room: I will include some pictures but the room is beyond run down (thats where the whole "motel" thing comes from) just old, dated and in bad shape. It appears they put in newer appliances in the kitchen but everything else was neglected. The furniture was torn, strained and dented in the living room. The bedrooms had the worse mattresses I have ever slept on (its definitely not a Marriott mattress) The mattress would just sink when you slept on it and the linens were cheap and some did not even match. The room was described on the website as a bedroom/ 2 bathroom but it was only one very small bathroom, very very small. In the kitchen they provided dish washing liquid but no sponge or scrub (what do they expect you to use?) I picked one up at the grocery store. The Hotel kitchen/ Kitchen staff: This was by far the worse. The staff is not just unprofessional but rude to boot. On more than a few mornings they ran out of food 30 to 40 mins before breakfast was over. This is a sample of one of the conversations I had "excuse me ma'am are you bringing out anymore omelets ? no we ran out . you ran out? theres like 40 minutes left? yeah a lot of people came to breakfast today we weren't expecting so many. (You think they would know how many rooms are occupied at the hotel) umm ok .. ma'am theres no waffles, are you getting any? no no waffles today. (thats ok I will just have a bagel) ma'am, there no bagels and no bread of any kind actually, is there any in the back? no we ran out of that too. (oh I see cereal, I will have cereal) oh ma'am , is there any milk left to have with cereal? no we ran out. well what do you have? We have some pancakes left. I replied with I don't like pancakes is there anything else you can dig up? she replies with "everybody like pancakes" and walks away (which is funny because I just told her I didn't like pancakes so obviously not everyone likes pancakes) So I had juice for breakfast. The quality of the food in general when they did have it was horrible, just standard microwave fair. On tuesdays and Wednesday's they host 2 hour or so "cocktail" type thing where they provide beer and wine along with some sort of appetizer. We weren't even informed of this until we saw it written on a board and inquired with the front desk. so on wednesday  nov 27, We made our way downstairs for the "cocktail hour thing" and instead of it being open there was a sign that said something along the lines of "no snack today because of the holiday". I walked to the front desk and asked what happen to appetizer night (looking as to how the holiday was the following evening I don't understand how that would prevent this thing from being hosted) he again repeated the holiday thing, which made no sense. Thursday was thanksgiving and we were hosting some family so we didn't use many services that day. On friday morning I woke up for breakfast and instead of it being open there is a sign that said breakfast has been delayed due to the holiday (the holiday was yesterday and how long can they use this excuse for?) no breakfast (again) The kitchen staff seemed very bothered by the fact that people where there everyday eating food. When it was decided that services would be closed or delayed they could of  slid a paper with that information under guest doors so that people can plan accordantly .The only positive thing here is that the location of this hotel is amazing. Right off a mayor highway and near more restaurants and shops than you will ever need.I would never stay at this hotel again nor would I recommend it to anyone. I can't believe its even associated with Marriott.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r181434707-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>181434707</t>
+  </si>
+  <si>
+    <t>10/17/2013</t>
+  </si>
+  <si>
+    <t>Great property off 249, near Willowbrook, perfect for longer stays</t>
+  </si>
+  <si>
+    <t>This TownePlace Suites is located right next to a Courtyard, they share the parking lot, and technically the entrance to the TownePlace would be from Compaq Drive. Checkin was extremely friendly and professional, was already received in parking lot asking if I needed help. They offer a courtesy shuttle within 5 miles (ie including a trip to Willowbrook Mall, 7am-7pm), there are some restaurants in walking distance (Brewskis Pub, Mexican, etc; also a Target and a large HEB grocery nearby &lt;1mile) and plentiful breakfast buffet in the mornings (including breakfast cereal bars, apples, oranges, juice, cereal, toast, bagels, raisin, walnuts,...)
+The property consists of two large three story buildings, and all rooms are minisuites, with kitchen, fridge, microwave, stove, large flat screen TV, nice workdesk and work chair.  Bed was very comfortable, windows can be opened for fresh air. There was some limited background noise from highway, but slept easily through it. Nice outside pool was perfect for a quick swim in October. There is a fitness room (treadmill, elliptical, weights, yoga mat, ball) open 24h and an outside barbeque area. Manager's receptions Tuesday and Wednesday evenings.
+Kitchen and bathroom with linoleum, living area with carpet. Marriott's Mitchel shampoo and conditioner. 
+Received a welcome bag for Rewards members with some goodies (candy and bottled water). While not brandnew this place was very pleasant and seems to attract mainy longerstay relocators/consultant/families looking to move to the area.
+Wifi Internet was free...This TownePlace Suites is located right next to a Courtyard, they share the parking lot, and technically the entrance to the TownePlace would be from Compaq Drive. Checkin was extremely friendly and professional, was already received in parking lot asking if I needed help. They offer a courtesy shuttle within 5 miles (ie including a trip to Willowbrook Mall, 7am-7pm), there are some restaurants in walking distance (Brewskis Pub, Mexican, etc; also a Target and a large HEB grocery nearby &lt;1mile) and plentiful breakfast buffet in the mornings (including breakfast cereal bars, apples, oranges, juice, cereal, toast, bagels, raisin, walnuts,...)The property consists of two large three story buildings, and all rooms are minisuites, with kitchen, fridge, microwave, stove, large flat screen TV, nice workdesk and work chair.  Bed was very comfortable, windows can be opened for fresh air. There was some limited background noise from highway, but slept easily through it. Nice outside pool was perfect for a quick swim in October. There is a fitness room (treadmill, elliptical, weights, yoga mat, ball) open 24h and an outside barbeque area. Manager's receptions Tuesday and Wednesday evenings.Kitchen and bathroom with linoleum, living area with carpet. Marriott's Mitchel shampoo and conditioner. Received a welcome bag for Rewards members with some goodies (candy and bottled water). While not brandnew this place was very pleasant and seems to attract mainy longerstay relocators/consultant/families looking to move to the area.Wifi Internet was free and reliable. There is also a computer with printer in the lobby area for guest use, and they offer the Wall Street Journal in the morning.Good value and recommendable, yes would come back here.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>morgan_gurung, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded October 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2013</t>
+  </si>
+  <si>
+    <t>This TownePlace Suites is located right next to a Courtyard, they share the parking lot, and technically the entrance to the TownePlace would be from Compaq Drive. Checkin was extremely friendly and professional, was already received in parking lot asking if I needed help. They offer a courtesy shuttle within 5 miles (ie including a trip to Willowbrook Mall, 7am-7pm), there are some restaurants in walking distance (Brewskis Pub, Mexican, etc; also a Target and a large HEB grocery nearby &lt;1mile) and plentiful breakfast buffet in the mornings (including breakfast cereal bars, apples, oranges, juice, cereal, toast, bagels, raisin, walnuts,...)
+The property consists of two large three story buildings, and all rooms are minisuites, with kitchen, fridge, microwave, stove, large flat screen TV, nice workdesk and work chair.  Bed was very comfortable, windows can be opened for fresh air. There was some limited background noise from highway, but slept easily through it. Nice outside pool was perfect for a quick swim in October. There is a fitness room (treadmill, elliptical, weights, yoga mat, ball) open 24h and an outside barbeque area. Manager's receptions Tuesday and Wednesday evenings.
+Kitchen and bathroom with linoleum, living area with carpet. Marriott's Mitchel shampoo and conditioner. 
+Received a welcome bag for Rewards members with some goodies (candy and bottled water). While not brandnew this place was very pleasant and seems to attract mainy longerstay relocators/consultant/families looking to move to the area.
+Wifi Internet was free...This TownePlace Suites is located right next to a Courtyard, they share the parking lot, and technically the entrance to the TownePlace would be from Compaq Drive. Checkin was extremely friendly and professional, was already received in parking lot asking if I needed help. They offer a courtesy shuttle within 5 miles (ie including a trip to Willowbrook Mall, 7am-7pm), there are some restaurants in walking distance (Brewskis Pub, Mexican, etc; also a Target and a large HEB grocery nearby &lt;1mile) and plentiful breakfast buffet in the mornings (including breakfast cereal bars, apples, oranges, juice, cereal, toast, bagels, raisin, walnuts,...)The property consists of two large three story buildings, and all rooms are minisuites, with kitchen, fridge, microwave, stove, large flat screen TV, nice workdesk and work chair.  Bed was very comfortable, windows can be opened for fresh air. There was some limited background noise from highway, but slept easily through it. Nice outside pool was perfect for a quick swim in October. There is a fitness room (treadmill, elliptical, weights, yoga mat, ball) open 24h and an outside barbeque area. Manager's receptions Tuesday and Wednesday evenings.Kitchen and bathroom with linoleum, living area with carpet. Marriott's Mitchel shampoo and conditioner. Received a welcome bag for Rewards members with some goodies (candy and bottled water). While not brandnew this place was very pleasant and seems to attract mainy longerstay relocators/consultant/families looking to move to the area.Wifi Internet was free and reliable. There is also a computer with printer in the lobby area for guest use, and they offer the Wall Street Journal in the morning.Good value and recommendable, yes would come back here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r177798763-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>177798763</t>
+  </si>
+  <si>
+    <t>09/19/2013</t>
+  </si>
+  <si>
+    <t>Ok, but not really a Marriott</t>
+  </si>
+  <si>
+    <t>I booked this hotel because the other Marriott's were full. This is a good, serviceable hotel but not quite at the level I was expecting of the brand. The staff was very friendly and the rooms were large, but tired. Breakfast was in a small area of the hotel and I'm glad I got early to avoid the crush. A good value hotel, but left me expecting moreMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>morgan_gurung, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded October 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2013</t>
+  </si>
+  <si>
+    <t>I booked this hotel because the other Marriott's were full. This is a good, serviceable hotel but not quite at the level I was expecting of the brand. The staff was very friendly and the rooms were large, but tired. Breakfast was in a small area of the hotel and I'm glad I got early to avoid the crush. A good value hotel, but left me expecting moreMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r176346284-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>176346284</t>
+  </si>
+  <si>
+    <t>09/08/2013</t>
+  </si>
+  <si>
+    <t>Very comfortable stay, friendly staff</t>
+  </si>
+  <si>
+    <t>Staying in Houston in the summer can be challenging, but this hotel made the stay as comfortable as possible. Just the right amount of air conditioning (a huge deal at this time of year) made going in and out of the buildings feel right. The suite was large, had everything I needed, and more, including an up-to-date and clean kitchen, plenty of room to spread out and work, and fairly good wireless connectivity. The included breakfast choices were many (oatmeal, eggs/meat, cereal, waffles, fruit, energy bars, toast, coffee, juices, water, yogurts, etc.). Which is good because there's not a lot within walking distance to/from the hotel. If you want to go to a restaurant, bring a car because not only are there no/limited sidewalks in the area, restaurants are about 1/2 mile or more away. That's the only downside, really. The staff is super friendly and accommodating, and are always ready with a smile and a "Hello!" I like it here and I will be coming back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Staying in Houston in the summer can be challenging, but this hotel made the stay as comfortable as possible. Just the right amount of air conditioning (a huge deal at this time of year) made going in and out of the buildings feel right. The suite was large, had everything I needed, and more, including an up-to-date and clean kitchen, plenty of room to spread out and work, and fairly good wireless connectivity. The included breakfast choices were many (oatmeal, eggs/meat, cereal, waffles, fruit, energy bars, toast, coffee, juices, water, yogurts, etc.). Which is good because there's not a lot within walking distance to/from the hotel. If you want to go to a restaurant, bring a car because not only are there no/limited sidewalks in the area, restaurants are about 1/2 mile or more away. That's the only downside, really. The staff is super friendly and accommodating, and are always ready with a smile and a "Hello!" I like it here and I will be coming back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r174023998-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>174023998</t>
+  </si>
+  <si>
+    <t>08/25/2013</t>
+  </si>
+  <si>
+    <t>Magnificent spot for several families</t>
+  </si>
+  <si>
+    <t>Our family selected TownePlace Suites for lodging before and after a wedding. The hotel staff graciously remembered me when I phoned asking for a change in accommodations when our plans changed. They allowed our family the use of the breakfast room for an evening gathering (simply with request that we clean up.)  The 2 bedroom suite with 3 flat screen tv's made possible lodging for 4 adults and 2 children (with totally separate spacious bedrooms with closets and dressers and living area) at a budget conscious price. They accommodated our request for 3 rooms in close proximity, and phoned room with clarification on which rooms would be first choice.  The bathroom was small, but the vanity was separate from the bath/ toilet.  Full Apartment size frig.  Stove with burners and oven. Hot breakfast on Sunday was different from hot breakfast on Saturday. Could not be more pleased. MoreShow less</t>
+  </si>
+  <si>
+    <t>Our family selected TownePlace Suites for lodging before and after a wedding. The hotel staff graciously remembered me when I phoned asking for a change in accommodations when our plans changed. They allowed our family the use of the breakfast room for an evening gathering (simply with request that we clean up.)  The 2 bedroom suite with 3 flat screen tv's made possible lodging for 4 adults and 2 children (with totally separate spacious bedrooms with closets and dressers and living area) at a budget conscious price. They accommodated our request for 3 rooms in close proximity, and phoned room with clarification on which rooms would be first choice.  The bathroom was small, but the vanity was separate from the bath/ toilet.  Full Apartment size frig.  Stove with burners and oven. Hot breakfast on Sunday was different from hot breakfast on Saturday. Could not be more pleased. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r172895063-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>172895063</t>
+  </si>
+  <si>
+    <t>08/18/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel for business</t>
+  </si>
+  <si>
+    <t>I had traveled and stayed at this hotel several times.  It is convenient for me since it is close to where I need to be early in the morning. This is a suite type hotel with partial kitchen, full size fridge and cooking facility.  The room is clean and quite.  The beds are just right.  The A/C ran fine but somehow it did not stayed at the correct set temperature.  I had to set it down to 65F but yet I do not feel that cold.  The bathroom is good size, but the bathroom counter is kind if small.  I arrived real late at night and the attendant was very nice.  Overall, I think this is a good quite hotel to stay for business.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>morgan_gurung, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded August 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2013</t>
+  </si>
+  <si>
+    <t>I had traveled and stayed at this hotel several times.  It is convenient for me since it is close to where I need to be early in the morning. This is a suite type hotel with partial kitchen, full size fridge and cooking facility.  The room is clean and quite.  The beds are just right.  The A/C ran fine but somehow it did not stayed at the correct set temperature.  I had to set it down to 65F but yet I do not feel that cold.  The bathroom is good size, but the bathroom counter is kind if small.  I arrived real late at night and the attendant was very nice.  Overall, I think this is a good quite hotel to stay for business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r169917285-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>169917285</t>
+  </si>
+  <si>
+    <t>07/30/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel for business travellers</t>
+  </si>
+  <si>
+    <t>This was my first stay at the TownePlace Suites Houston Northwest.  If you are a business traveller and happen to be visiting the Hewlett-Packard (old Compaq) campus, this hotel is the one for you.  It's withing walking distance of the HP campus.  The complimentary breakfast was great and included scrambled eggs, waffles, cereal, oatmeal, yoguart, pastries, fruit coffee and juices.  The rooms were nice size but they don't have any king size beds at this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>morgan_gurung, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded August 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2013</t>
+  </si>
+  <si>
+    <t>This was my first stay at the TownePlace Suites Houston Northwest.  If you are a business traveller and happen to be visiting the Hewlett-Packard (old Compaq) campus, this hotel is the one for you.  It's withing walking distance of the HP campus.  The complimentary breakfast was great and included scrambled eggs, waffles, cereal, oatmeal, yoguart, pastries, fruit coffee and juices.  The rooms were nice size but they don't have any king size beds at this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r158578593-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158578593</t>
+  </si>
+  <si>
+    <t>04/23/2013</t>
+  </si>
+  <si>
+    <t>Great Rooms at Excellent prices</t>
+  </si>
+  <si>
+    <t>Traveling with family?  Want a great large studio or suite room with kitchen to save money on restaurants?  This is the place!!  Rooms are clean, large, and very inviting.  Kitchens are completely equipped with utensils and cookware.  Stores are nearby for grocery shopping. Complimentary breakfast is  excellent  and offers selections for any age group.  I'd definitely stay here again..MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>morgan_gurung, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded May 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2013</t>
+  </si>
+  <si>
+    <t>Traveling with family?  Want a great large studio or suite room with kitchen to save money on restaurants?  This is the place!!  Rooms are clean, large, and very inviting.  Kitchens are completely equipped with utensils and cookware.  Stores are nearby for grocery shopping. Complimentary breakfast is  excellent  and offers selections for any age group.  I'd definitely stay here again..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r151614628-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151614628</t>
+  </si>
+  <si>
+    <t>02/07/2013</t>
+  </si>
+  <si>
+    <t>DON'T LET MARRIOTT NAME FOOL YOU</t>
+  </si>
+  <si>
+    <t>It will not live up to Marriott standards.  Most of the people are nice, have a good attitude, and will try.  But they cannot overcome the decisions made by poor management.  TV came on during the night, only elevator out of commission for several days, no hot water in bath sink, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>morgan_gurung, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded February 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2013</t>
+  </si>
+  <si>
+    <t>It will not live up to Marriott standards.  Most of the people are nice, have a good attitude, and will try.  But they cannot overcome the decisions made by poor management.  TV came on during the night, only elevator out of commission for several days, no hot water in bath sink, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r145330563-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145330563</t>
+  </si>
+  <si>
+    <t>11/13/2012</t>
+  </si>
+  <si>
+    <t>Good for a "Value" price, long-term stay hotel</t>
+  </si>
+  <si>
+    <t>This property is across the street from the HP Houston Campus (the address should be Compaq Center Drive) and is a typical TownePlace Suites.  I've looked at several of the other reviews and I really don't know what the others were expecting.  Marriott has 3 tiers of long-term stay properties - Residence Inn, Springhill Suites, and TownePlace Suites and all of them feature studio or apartment layouts, LIMITED daily housekeeping, and expanded kitchen features.  TownePlace is the most "economical" of the group and it is appointed as such - don't expect the Courtyard next door but you won't pay for it either.
+This property has had some upgrades since I last stayed here but could probably use a few more since it has been around for a while.  I stayed for a week on an HP rate for an event at their campus and I had no significant complaints.  These were the minor glitches that I encountered: the granite kitchen counter and ledge near the coffee maker was filthy when I checked in and I had to clean off the sticky spills, rings, and stuff that nobody caught; the thermostat on the A/C mounted below the window was off by several degrees but it worked fine and was quiet enough; the window screens were torn up so leaving the window open was problematic; and there was some loud music from an adjacent strip mall pub on Thursday night.  None of...This property is across the street from the HP Houston Campus (the address should be Compaq Center Drive) and is a typical TownePlace Suites.  I've looked at several of the other reviews and I really don't know what the others were expecting.  Marriott has 3 tiers of long-term stay properties - Residence Inn, Springhill Suites, and TownePlace Suites and all of them feature studio or apartment layouts, LIMITED daily housekeeping, and expanded kitchen features.  TownePlace is the most "economical" of the group and it is appointed as such - don't expect the Courtyard next door but you won't pay for it either.This property has had some upgrades since I last stayed here but could probably use a few more since it has been around for a while.  I stayed for a week on an HP rate for an event at their campus and I had no significant complaints.  These were the minor glitches that I encountered: the granite kitchen counter and ledge near the coffee maker was filthy when I checked in and I had to clean off the sticky spills, rings, and stuff that nobody caught; the thermostat on the A/C mounted below the window was off by several degrees but it worked fine and was quiet enough; the window screens were torn up so leaving the window open was problematic; and there was some loud music from an adjacent strip mall pub on Thursday night.  None of these were deal breakers, the daily towel and bed making service was reliable, the Ba was wiped down each day and the room was otherwise generally clean.  I had a 3rd floor room in the South building on the South side so probably avoided any issues that might come from being on the ground floor.  It was not noisy other than the Pub on Thursday night.The staff were quite friendly in the office, I never saw any of the cleaning staff.  The Breakfast was typical of what you find at other value chains (cereal, juice, fruit, pastries, etc.) and seemed to be well maintained.  Parking was adequate and shares a large area with the adjacent Courtyard.  The Courtyard now has their "Bistro" so you can walk next door for food or drink.  It's a little farther to walk to the strip mall for other food options and beyond the adjacent highway to reach other restaurants.  I think the hotel will shuttle you to nearby restaurants if you don't have a car.Bottom line is I would stay here again knowing that this is not going to be a full service facility and knowing that it is an "economy" class property.  It is very good for the class of property and the relative price.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>This property is across the street from the HP Houston Campus (the address should be Compaq Center Drive) and is a typical TownePlace Suites.  I've looked at several of the other reviews and I really don't know what the others were expecting.  Marriott has 3 tiers of long-term stay properties - Residence Inn, Springhill Suites, and TownePlace Suites and all of them feature studio or apartment layouts, LIMITED daily housekeeping, and expanded kitchen features.  TownePlace is the most "economical" of the group and it is appointed as such - don't expect the Courtyard next door but you won't pay for it either.
+This property has had some upgrades since I last stayed here but could probably use a few more since it has been around for a while.  I stayed for a week on an HP rate for an event at their campus and I had no significant complaints.  These were the minor glitches that I encountered: the granite kitchen counter and ledge near the coffee maker was filthy when I checked in and I had to clean off the sticky spills, rings, and stuff that nobody caught; the thermostat on the A/C mounted below the window was off by several degrees but it worked fine and was quiet enough; the window screens were torn up so leaving the window open was problematic; and there was some loud music from an adjacent strip mall pub on Thursday night.  None of...This property is across the street from the HP Houston Campus (the address should be Compaq Center Drive) and is a typical TownePlace Suites.  I've looked at several of the other reviews and I really don't know what the others were expecting.  Marriott has 3 tiers of long-term stay properties - Residence Inn, Springhill Suites, and TownePlace Suites and all of them feature studio or apartment layouts, LIMITED daily housekeeping, and expanded kitchen features.  TownePlace is the most "economical" of the group and it is appointed as such - don't expect the Courtyard next door but you won't pay for it either.This property has had some upgrades since I last stayed here but could probably use a few more since it has been around for a while.  I stayed for a week on an HP rate for an event at their campus and I had no significant complaints.  These were the minor glitches that I encountered: the granite kitchen counter and ledge near the coffee maker was filthy when I checked in and I had to clean off the sticky spills, rings, and stuff that nobody caught; the thermostat on the A/C mounted below the window was off by several degrees but it worked fine and was quiet enough; the window screens were torn up so leaving the window open was problematic; and there was some loud music from an adjacent strip mall pub on Thursday night.  None of these were deal breakers, the daily towel and bed making service was reliable, the Ba was wiped down each day and the room was otherwise generally clean.  I had a 3rd floor room in the South building on the South side so probably avoided any issues that might come from being on the ground floor.  It was not noisy other than the Pub on Thursday night.The staff were quite friendly in the office, I never saw any of the cleaning staff.  The Breakfast was typical of what you find at other value chains (cereal, juice, fruit, pastries, etc.) and seemed to be well maintained.  Parking was adequate and shares a large area with the adjacent Courtyard.  The Courtyard now has their "Bistro" so you can walk next door for food or drink.  It's a little farther to walk to the strip mall for other food options and beyond the adjacent highway to reach other restaurants.  I think the hotel will shuttle you to nearby restaurants if you don't have a car.Bottom line is I would stay here again knowing that this is not going to be a full service facility and knowing that it is an "economy" class property.  It is very good for the class of property and the relative price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r137217257-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>137217257</t>
+  </si>
+  <si>
+    <t>08/14/2012</t>
+  </si>
+  <si>
+    <t>I agree, run from this hotel!</t>
+  </si>
+  <si>
+    <t>My family stayed here in June 2012 because the closest Residence Inns were full.  Never again.  I was so disappointed, it's difficult to know where to start.  It looked so dingy and awful when we walked in our building my daughter asked if this was really the right place.  There was no drain plug in the bathtub and I have two small children so this was a problem that we had to fix with a plastic bag and a towel.  The tv in one of the bedrooms had to be unplugged when we weren't using it: it would turn on and off by itself..??  Not sure what was up with that.  The overall condition of the place was awful.  It was difficult to believe it is a Marriott hotel.  Our room was not cleaned and when we called they said that we had put the "do not disturb" sign out.  It was never out on our door, it was out the entire time we were there on the door next to ours.  We were there 4 days, our beds were never made, etc the entire time we were there.  Unacceptable.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>TowneplaceNWHouston, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded August 22, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2012</t>
+  </si>
+  <si>
+    <t>My family stayed here in June 2012 because the closest Residence Inns were full.  Never again.  I was so disappointed, it's difficult to know where to start.  It looked so dingy and awful when we walked in our building my daughter asked if this was really the right place.  There was no drain plug in the bathtub and I have two small children so this was a problem that we had to fix with a plastic bag and a towel.  The tv in one of the bedrooms had to be unplugged when we weren't using it: it would turn on and off by itself..??  Not sure what was up with that.  The overall condition of the place was awful.  It was difficult to believe it is a Marriott hotel.  Our room was not cleaned and when we called they said that we had put the "do not disturb" sign out.  It was never out on our door, it was out the entire time we were there on the door next to ours.  We were there 4 days, our beds were never made, etc the entire time we were there.  Unacceptable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r132068480-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132068480</t>
+  </si>
+  <si>
+    <t>06/15/2012</t>
+  </si>
+  <si>
+    <t>Run, don't walk!</t>
+  </si>
+  <si>
+    <t>This is the worst Marriott property I have ever had the pleasure to occupy. Had 2 nights here and and that was definitely too long. I was greeted with an unmade bed and personal effects in the first room I was given.
+I returned to the front desk and was given another room. I made it to the other room and was greeted with an unbelievable stench as soon as I opened the door. I travel constantly and usually put up with minor nuisances. I unpacked and started working, trying to ignore the stench. After about 2 hours in this room, I couldn't take it any longer. 
+I went to the front desk and explained the situation. They were very accommodating and issued a different room. When I opened the door, the room looked and smelled ok. There was an overabundance of some type of air freshener, but it was much better than the room I just left. But, when I went to use the restroom, I noticed mouse droppings on the floor. I wasn't about to ask for a 4th room (they were near capacity), so I cleaned it up and stayed in the room.
+Overall, the room was dirty and not up to Marriott standards. Everything in the room worked, but it was not comfortable due to the lack of cleanliness. 
+On my second night, I approached the front desk and asked for a shuttle ride at 5:30....This is the worst Marriott property I have ever had the pleasure to occupy. Had 2 nights here and and that was definitely too long. I was greeted with an unmade bed and personal effects in the first room I was given.I returned to the front desk and was given another room. I made it to the other room and was greeted with an unbelievable stench as soon as I opened the door. I travel constantly and usually put up with minor nuisances. I unpacked and started working, trying to ignore the stench. After about 2 hours in this room, I couldn't take it any longer. I went to the front desk and explained the situation. They were very accommodating and issued a different room. When I opened the door, the room looked and smelled ok. There was an overabundance of some type of air freshener, but it was much better than the room I just left. But, when I went to use the restroom, I noticed mouse droppings on the floor. I wasn't about to ask for a 4th room (they were near capacity), so I cleaned it up and stayed in the room.Overall, the room was dirty and not up to Marriott standards. Everything in the room worked, but it was not comfortable due to the lack of cleanliness. On my second night, I approached the front desk and asked for a shuttle ride at 5:30. The front desk person explained to me that they do not have a driver and I could not get a ride. She told me that they have not had a shuttle driver all day.Nothing could have made me happier than to check out of this hotel. If you do not like unpleasant odors, do not stay here. Not sure what causes this condition, but it is bad. There are what seem to be long term residents there (1 month +). Lots of the "guests" have multiple dogs.I can be certain that I will not try a TownePlace Suites in the future. I could not wait to get home to shower.Forgot to mention, this is a very expensive hotel for what you get. Stay away!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 21, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2012</t>
+  </si>
+  <si>
+    <t>This is the worst Marriott property I have ever had the pleasure to occupy. Had 2 nights here and and that was definitely too long. I was greeted with an unmade bed and personal effects in the first room I was given.
+I returned to the front desk and was given another room. I made it to the other room and was greeted with an unbelievable stench as soon as I opened the door. I travel constantly and usually put up with minor nuisances. I unpacked and started working, trying to ignore the stench. After about 2 hours in this room, I couldn't take it any longer. 
+I went to the front desk and explained the situation. They were very accommodating and issued a different room. When I opened the door, the room looked and smelled ok. There was an overabundance of some type of air freshener, but it was much better than the room I just left. But, when I went to use the restroom, I noticed mouse droppings on the floor. I wasn't about to ask for a 4th room (they were near capacity), so I cleaned it up and stayed in the room.
+Overall, the room was dirty and not up to Marriott standards. Everything in the room worked, but it was not comfortable due to the lack of cleanliness. 
+On my second night, I approached the front desk and asked for a shuttle ride at 5:30....This is the worst Marriott property I have ever had the pleasure to occupy. Had 2 nights here and and that was definitely too long. I was greeted with an unmade bed and personal effects in the first room I was given.I returned to the front desk and was given another room. I made it to the other room and was greeted with an unbelievable stench as soon as I opened the door. I travel constantly and usually put up with minor nuisances. I unpacked and started working, trying to ignore the stench. After about 2 hours in this room, I couldn't take it any longer. I went to the front desk and explained the situation. They were very accommodating and issued a different room. When I opened the door, the room looked and smelled ok. There was an overabundance of some type of air freshener, but it was much better than the room I just left. But, when I went to use the restroom, I noticed mouse droppings on the floor. I wasn't about to ask for a 4th room (they were near capacity), so I cleaned it up and stayed in the room.Overall, the room was dirty and not up to Marriott standards. Everything in the room worked, but it was not comfortable due to the lack of cleanliness. On my second night, I approached the front desk and asked for a shuttle ride at 5:30. The front desk person explained to me that they do not have a driver and I could not get a ride. She told me that they have not had a shuttle driver all day.Nothing could have made me happier than to check out of this hotel. If you do not like unpleasant odors, do not stay here. Not sure what causes this condition, but it is bad. There are what seem to be long term residents there (1 month +). Lots of the "guests" have multiple dogs.I can be certain that I will not try a TownePlace Suites in the future. I could not wait to get home to shower.Forgot to mention, this is a very expensive hotel for what you get. Stay away!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r130680235-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130680235</t>
+  </si>
+  <si>
+    <t>05/27/2012</t>
+  </si>
+  <si>
+    <t>Ugh.</t>
+  </si>
+  <si>
+    <t>This hotel has friendly staff.  That's the nicest thing to say about it.The hotel appears to be used by long-term residents (I'm guessing a few weeks or months at a time) who like to hang out drinking beer outside.  The halls smell (unpleasantly) of cooking being done in the rooms.  My room was noisy, as neighbors were watching TV until 1:30am.  The concept is great; the rooms have kitchens.  But the rooms and equipment look very aged (much older than the exterior of the hotel looks).  The rooms are not cleaned daily, which is appropriate for a longer stay apartment.The price is fairly low, though it doesn't seem a value.  If what you need is the most basic accommodation for a longer term, this might be a good fit.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>This hotel has friendly staff.  That's the nicest thing to say about it.The hotel appears to be used by long-term residents (I'm guessing a few weeks or months at a time) who like to hang out drinking beer outside.  The halls smell (unpleasantly) of cooking being done in the rooms.  My room was noisy, as neighbors were watching TV until 1:30am.  The concept is great; the rooms have kitchens.  But the rooms and equipment look very aged (much older than the exterior of the hotel looks).  The rooms are not cleaned daily, which is appropriate for a longer stay apartment.The price is fairly low, though it doesn't seem a value.  If what you need is the most basic accommodation for a longer term, this might be a good fit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r126452490-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>126452490</t>
+  </si>
+  <si>
+    <t>03/21/2012</t>
+  </si>
+  <si>
+    <t>Clean, convenient biz hotel</t>
+  </si>
+  <si>
+    <t>Hotel is clean and rooms are large.  Connecting rooms don't do a good job of insulating noise from neighbor through the door.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r126366766-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>126366766</t>
+  </si>
+  <si>
+    <t>03/19/2012</t>
+  </si>
+  <si>
+    <t>Fantastic hotel and dog friendly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We experienced a very pleasant four night stay.  The room was very spacious, clean and quiet. The bed was very comfortable and we slept very well.  Having a kitchenette was a nice convenience. We had our two big dogs with us and there was a well manicured field to walk them in. Definitely would stay there again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r121142204-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>121142204</t>
+  </si>
+  <si>
+    <t>11/28/2011</t>
+  </si>
+  <si>
+    <t>Definitely Adequate</t>
+  </si>
+  <si>
+    <t>We stayed at the Towneplace Suites for one night when we needed to visit Houston.  We had originally booked one two-bedroom suite and an additional one-bedroom room.  However, at check-in, they had completely changed the reservation.  Apparently, they didn't have the original booking option available.  They put us in 3 single bedroom suites, and two of them were adjoining.  It did work out, but I didn't care for changing the reservations we made, because we made them that way for a reason.  Other than the booking issue, the stay was adequate and uneventful.  They provide a "grab and go" breakfast in a brown paper bag with portable breakfast eats.  We chose not to partake in the paper bag breakfast, and there was a nice diner (The Egg and I) about 500ft from the hotel, which was convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>We stayed at the Towneplace Suites for one night when we needed to visit Houston.  We had originally booked one two-bedroom suite and an additional one-bedroom room.  However, at check-in, they had completely changed the reservation.  Apparently, they didn't have the original booking option available.  They put us in 3 single bedroom suites, and two of them were adjoining.  It did work out, but I didn't care for changing the reservations we made, because we made them that way for a reason.  Other than the booking issue, the stay was adequate and uneventful.  They provide a "grab and go" breakfast in a brown paper bag with portable breakfast eats.  We chose not to partake in the paper bag breakfast, and there was a nice diner (The Egg and I) about 500ft from the hotel, which was convenient.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1640,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1672,2992 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>91</v>
+      </c>
+      <c r="X7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>115</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>124</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>125</v>
+      </c>
+      <c r="X10" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" t="s">
+        <v>134</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" t="s">
+        <v>90</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>145</v>
+      </c>
+      <c r="O13" t="s">
+        <v>134</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>146</v>
+      </c>
+      <c r="X13" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>154</v>
+      </c>
+      <c r="O14" t="s">
+        <v>134</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" t="s">
+        <v>158</v>
+      </c>
+      <c r="L15" t="s">
+        <v>159</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>160</v>
+      </c>
+      <c r="O15" t="s">
+        <v>90</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>161</v>
+      </c>
+      <c r="X15" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>165</v>
+      </c>
+      <c r="J16" t="s">
+        <v>166</v>
+      </c>
+      <c r="K16" t="s">
+        <v>167</v>
+      </c>
+      <c r="L16" t="s">
+        <v>168</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>154</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>154</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>174</v>
+      </c>
+      <c r="X17" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>178</v>
+      </c>
+      <c r="J18" t="s">
+        <v>179</v>
+      </c>
+      <c r="K18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L18" t="s">
+        <v>181</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>182</v>
+      </c>
+      <c r="O18" t="s">
+        <v>134</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>183</v>
+      </c>
+      <c r="X18" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" t="s">
+        <v>188</v>
+      </c>
+      <c r="K19" t="s">
+        <v>189</v>
+      </c>
+      <c r="L19" t="s">
+        <v>190</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>191</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>193</v>
+      </c>
+      <c r="J20" t="s">
+        <v>194</v>
+      </c>
+      <c r="K20" t="s">
+        <v>195</v>
+      </c>
+      <c r="L20" t="s">
+        <v>196</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>197</v>
+      </c>
+      <c r="O20" t="s">
+        <v>134</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>199</v>
+      </c>
+      <c r="J21" t="s">
+        <v>200</v>
+      </c>
+      <c r="K21" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" t="s">
+        <v>202</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>203</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>205</v>
+      </c>
+      <c r="J22" t="s">
+        <v>206</v>
+      </c>
+      <c r="K22" t="s">
+        <v>207</v>
+      </c>
+      <c r="L22" t="s">
+        <v>208</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>209</v>
+      </c>
+      <c r="O22" t="s">
+        <v>134</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>210</v>
+      </c>
+      <c r="X22" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>213</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>214</v>
+      </c>
+      <c r="J23" t="s">
+        <v>215</v>
+      </c>
+      <c r="K23" t="s">
+        <v>216</v>
+      </c>
+      <c r="L23" t="s">
+        <v>217</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>218</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>220</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J24" t="s">
+        <v>222</v>
+      </c>
+      <c r="K24" t="s">
+        <v>223</v>
+      </c>
+      <c r="L24" t="s">
+        <v>224</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>227</v>
+      </c>
+      <c r="J25" t="s">
+        <v>228</v>
+      </c>
+      <c r="K25" t="s">
+        <v>229</v>
+      </c>
+      <c r="L25" t="s">
+        <v>230</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>231</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>232</v>
+      </c>
+      <c r="X25" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>235</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>236</v>
+      </c>
+      <c r="J26" t="s">
+        <v>237</v>
+      </c>
+      <c r="K26" t="s">
+        <v>238</v>
+      </c>
+      <c r="L26" t="s">
+        <v>239</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>240</v>
+      </c>
+      <c r="O26" t="s">
+        <v>134</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>241</v>
+      </c>
+      <c r="X26" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>245</v>
+      </c>
+      <c r="J27" t="s">
+        <v>246</v>
+      </c>
+      <c r="K27" t="s">
+        <v>247</v>
+      </c>
+      <c r="L27" t="s">
+        <v>248</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>240</v>
+      </c>
+      <c r="O27" t="s">
+        <v>249</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>250</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>251</v>
+      </c>
+      <c r="J28" t="s">
+        <v>252</v>
+      </c>
+      <c r="K28" t="s">
+        <v>253</v>
+      </c>
+      <c r="L28" t="s">
+        <v>254</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>255</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>256</v>
+      </c>
+      <c r="X28" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>259</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>260</v>
+      </c>
+      <c r="J29" t="s">
+        <v>261</v>
+      </c>
+      <c r="K29" t="s">
+        <v>262</v>
+      </c>
+      <c r="L29" t="s">
+        <v>263</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>264</v>
+      </c>
+      <c r="O29" t="s">
+        <v>134</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>265</v>
+      </c>
+      <c r="X29" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>268</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>269</v>
+      </c>
+      <c r="J30" t="s">
+        <v>270</v>
+      </c>
+      <c r="K30" t="s">
+        <v>271</v>
+      </c>
+      <c r="L30" t="s">
+        <v>272</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>273</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>274</v>
+      </c>
+      <c r="X30" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>277</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>278</v>
+      </c>
+      <c r="J31" t="s">
+        <v>279</v>
+      </c>
+      <c r="K31" t="s">
+        <v>280</v>
+      </c>
+      <c r="L31" t="s">
+        <v>281</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>282</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>283</v>
+      </c>
+      <c r="X31" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>286</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>287</v>
+      </c>
+      <c r="J32" t="s">
+        <v>288</v>
+      </c>
+      <c r="K32" t="s">
+        <v>289</v>
+      </c>
+      <c r="L32" t="s">
+        <v>290</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>291</v>
+      </c>
+      <c r="O32" t="s">
+        <v>134</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>292</v>
+      </c>
+      <c r="X32" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>295</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>296</v>
+      </c>
+      <c r="J33" t="s">
+        <v>297</v>
+      </c>
+      <c r="K33" t="s">
+        <v>298</v>
+      </c>
+      <c r="L33" t="s">
+        <v>299</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>300</v>
+      </c>
+      <c r="O33" t="s">
+        <v>134</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>301</v>
+      </c>
+      <c r="X33" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>304</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>305</v>
+      </c>
+      <c r="J34" t="s">
+        <v>306</v>
+      </c>
+      <c r="K34" t="s">
+        <v>307</v>
+      </c>
+      <c r="L34" t="s">
+        <v>308</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>300</v>
+      </c>
+      <c r="O34" t="s">
+        <v>134</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>301</v>
+      </c>
+      <c r="X34" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>310</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>311</v>
+      </c>
+      <c r="J35" t="s">
+        <v>312</v>
+      </c>
+      <c r="K35" t="s">
+        <v>313</v>
+      </c>
+      <c r="L35" t="s">
+        <v>314</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>316</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>317</v>
+      </c>
+      <c r="J36" t="s">
+        <v>318</v>
+      </c>
+      <c r="K36" t="s">
+        <v>319</v>
+      </c>
+      <c r="L36" t="s">
+        <v>320</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>321</v>
+      </c>
+      <c r="O36" t="s">
+        <v>134</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>322</v>
+      </c>
+      <c r="X36" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>325</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>326</v>
+      </c>
+      <c r="J37" t="s">
+        <v>327</v>
+      </c>
+      <c r="K37" t="s">
+        <v>328</v>
+      </c>
+      <c r="L37" t="s">
+        <v>329</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>330</v>
+      </c>
+      <c r="O37" t="s">
+        <v>134</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>331</v>
+      </c>
+      <c r="X37" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>334</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>335</v>
+      </c>
+      <c r="J38" t="s">
+        <v>336</v>
+      </c>
+      <c r="K38" t="s">
+        <v>337</v>
+      </c>
+      <c r="L38" t="s">
+        <v>338</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>339</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>340</v>
+      </c>
+      <c r="X38" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>343</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>344</v>
+      </c>
+      <c r="J39" t="s">
+        <v>345</v>
+      </c>
+      <c r="K39" t="s">
+        <v>346</v>
+      </c>
+      <c r="L39" t="s">
+        <v>347</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>348</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>349</v>
+      </c>
+      <c r="X39" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>352</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>353</v>
+      </c>
+      <c r="J40" t="s">
+        <v>354</v>
+      </c>
+      <c r="K40" t="s">
+        <v>355</v>
+      </c>
+      <c r="L40" t="s">
+        <v>356</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>357</v>
+      </c>
+      <c r="O40" t="s">
+        <v>134</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>359</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>360</v>
+      </c>
+      <c r="J41" t="s">
+        <v>361</v>
+      </c>
+      <c r="K41" t="s">
+        <v>362</v>
+      </c>
+      <c r="L41" t="s">
+        <v>363</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>364</v>
+      </c>
+      <c r="O41" t="s">
+        <v>134</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>365</v>
+      </c>
+      <c r="X41" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>368</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>369</v>
+      </c>
+      <c r="J42" t="s">
+        <v>370</v>
+      </c>
+      <c r="K42" t="s">
+        <v>371</v>
+      </c>
+      <c r="L42" t="s">
+        <v>372</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>364</v>
+      </c>
+      <c r="O42" t="s">
+        <v>134</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>373</v>
+      </c>
+      <c r="X42" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>376</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>377</v>
+      </c>
+      <c r="J43" t="s">
+        <v>378</v>
+      </c>
+      <c r="K43" t="s">
+        <v>379</v>
+      </c>
+      <c r="L43" t="s">
+        <v>380</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>381</v>
+      </c>
+      <c r="O43" t="s">
+        <v>134</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>383</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>384</v>
+      </c>
+      <c r="J44" t="s">
+        <v>385</v>
+      </c>
+      <c r="K44" t="s">
+        <v>386</v>
+      </c>
+      <c r="L44" t="s">
+        <v>387</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>388</v>
+      </c>
+      <c r="O44" t="s">
+        <v>134</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>389</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>390</v>
+      </c>
+      <c r="J45" t="s">
+        <v>391</v>
+      </c>
+      <c r="K45" t="s">
+        <v>392</v>
+      </c>
+      <c r="L45" t="s">
+        <v>393</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>394</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>395</v>
+      </c>
+      <c r="J46" t="s">
+        <v>396</v>
+      </c>
+      <c r="K46" t="s">
+        <v>397</v>
+      </c>
+      <c r="L46" t="s">
+        <v>398</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>399</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_662.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_662.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="621">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,75 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r595118933-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223187</t>
+  </si>
+  <si>
+    <t>595118933</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>Property is good. Thin walls, crying dogs, and drunk guests made it terrible.</t>
+  </si>
+  <si>
+    <t>I had a corner 2-room suite, which was nice enough I could imagine living here as an apartment. But I could hear every detail of the drunk poker game in the next room through the front door. A puppy crying for hours the floor above me was loud enough I needed earplugs to sleep. Really a shame the walls are so thin, I don’t think I’ll be staying here again despite the great location and amenities.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Omar A, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded July 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2018</t>
+  </si>
+  <si>
+    <t>I had a corner 2-room suite, which was nice enough I could imagine living here as an apartment. But I could hear every detail of the drunk poker game in the next room through the front door. A puppy crying for hours the floor above me was loud enough I needed earplugs to sleep. Really a shame the walls are so thin, I don’t think I’ll be staying here again despite the great location and amenities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r590406607-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>590406607</t>
+  </si>
+  <si>
+    <t>06/24/2018</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>We had a group coming in for a baseball tournament in Tomball.  Contacted the hotel and spoke with Margaret who offered a more than competitive rate for our team.  Many of our families travel to these tournaments with multiple family members or coaches with players whose parents couldn’t make it this weekend.  The two bedroom units that we were offered were perfect for us.  Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Margaret H, Director of Sales at TownePlace Suites Houston Northwest, responded to this reviewResponded June 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2018</t>
+  </si>
+  <si>
+    <t>We had a group coming in for a baseball tournament in Tomball.  Contacted the hotel and spoke with Margaret who offered a more than competitive rate for our team.  Many of our families travel to these tournaments with multiple family members or coaches with players whose parents couldn’t make it this weekend.  The two bedroom units that we were offered were perfect for us.  Thank you!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r589025607-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>223187</t>
-  </si>
-  <si>
     <t>589025607</t>
   </si>
   <si>
@@ -174,9 +231,6 @@
     <t>The stay was horrible to check in Friday ask for extra blankets in my reservation call to make sure and be told I would have extra blankets in the closet come to bedtime there is no extra blankets. So here I have to go to front desk and ask for 3 and be told all she had was 1. Now keep in mind we are 8in total 6 kids, 2 adults. I reserved 2 connecting rooms due to kids. It was easy to moving the sofa bed from one room to the other  so kids could be together and moved table to the other room so we could sit together to eat. Now I check out Sunday at 1pm. I remember today Tuesday I had left behind a gift I was given by a friend we got to see during the weekend it was a picture collage put as a magnet for my refrigerator so I placed it on the refrigerator and when leaving I forgot to take it. I also forgot a pair of earrings on the small table next to bed to window side actual silver hoop earrings. So I call thinking someone had to turned them in and somehow I can have hotel mail them to me even if I pay for mailing devices and I get told somehow for moving furniture I am going to get reported to the hotel I work for now that is...The stay was horrible to check in Friday ask for extra blankets in my reservation call to make sure and be told I would have extra blankets in the closet come to bedtime there is no extra blankets. So here I have to go to front desk and ask for 3 and be told all she had was 1. Now keep in mind we are 8in total 6 kids, 2 adults. I reserved 2 connecting rooms due to kids. It was easy to moving the sofa bed from one room to the other  so kids could be together and moved table to the other room so we could sit together to eat. Now I check out Sunday at 1pm. I remember today Tuesday I had left behind a gift I was given by a friend we got to see during the weekend it was a picture collage put as a magnet for my refrigerator so I placed it on the refrigerator and when leaving I forgot to take it. I also forgot a pair of earrings on the small table next to bed to window side actual silver hoop earrings. So I call thinking someone had to turned them in and somehow I can have hotel mail them to me even if I pay for mailing devices and I get told somehow for moving furniture I am going to get reported to the hotel I work for now that is horrible because now to me it seems like they just want to hide what happened to my earrings. Come on I work for a hotel and moving furniture around is no a bad thing. Now I know for sure I did not damage any walls or anything like the way the hotel told me and accused me.MoreShow less</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
@@ -243,6 +297,57 @@
     <t>We recently stayed at this TownPlace hotel and we were very satisfied with the accommodations. My grandson said the bed was so comfortable! The breakfast options were good as was the supply. It was off the highway so it was very quiet. Would recommend to others.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r574469539-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>574469539</t>
+  </si>
+  <si>
+    <t>04/19/2018</t>
+  </si>
+  <si>
+    <t>Fully Satisfied with my stay at TownePlace Suites</t>
+  </si>
+  <si>
+    <t>This is my second visit to TownePlace Suites and as expected, fully satisfied with my stay here. The complementary Breakfast is really excellent. Staffs are friendly. Nice Location with good ambience, fully furnished Kitchen. No traffic noise, lots of greenery around the place, close to many near by eateries and shopping centers.I'm sure you will definitely enjoy your stay with TownePlace Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>Margaret H, Public Relations Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded April 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2018</t>
+  </si>
+  <si>
+    <t>This is my second visit to TownePlace Suites and as expected, fully satisfied with my stay here. The complementary Breakfast is really excellent. Staffs are friendly. Nice Location with good ambience, fully furnished Kitchen. No traffic noise, lots of greenery around the place, close to many near by eateries and shopping centers.I'm sure you will definitely enjoy your stay with TownePlace Suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r567676728-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567676728</t>
+  </si>
+  <si>
+    <t>03/20/2018</t>
+  </si>
+  <si>
+    <t>suitable but average hotel</t>
+  </si>
+  <si>
+    <t>I used to stay at this hotel years ago when visiting family nearby and came back to this property because it had the right amenities for traveling with a baby: separate rooms, full kitchen, separate living space, and breakfast.The property was clean, and the staff were pleasant. Having the amenities above made the trip manageable with a baby. We had a comfortable and quiet stay, and everyone slept well. The baby had a portable crib in her own room, which was a huge bonus.However, this property has seen better days and needs an update. Also, given the price point per night, I expected more from the breakfast options. Upon check in, staff warned that breakfast might run out. With a baby, we were up early enough to eat breakfast when it started or shortly after. The options were ok, but as our stay progressed, the amount of food dwindled and ran out more and more quickly. Wouldn't demand dictate the amount of food needed to serve guests? Why run out after only an hour into breakfast?I might consider this property in the future but would certainly investigate other options. I hope they upgrade soon, so the price can reflect quality.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Margaret H, Public Relations Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded March 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2018</t>
+  </si>
+  <si>
+    <t>I used to stay at this hotel years ago when visiting family nearby and came back to this property because it had the right amenities for traveling with a baby: separate rooms, full kitchen, separate living space, and breakfast.The property was clean, and the staff were pleasant. Having the amenities above made the trip manageable with a baby. We had a comfortable and quiet stay, and everyone slept well. The baby had a portable crib in her own room, which was a huge bonus.However, this property has seen better days and needs an update. Also, given the price point per night, I expected more from the breakfast options. Upon check in, staff warned that breakfast might run out. With a baby, we were up early enough to eat breakfast when it started or shortly after. The options were ok, but as our stay progressed, the amount of food dwindled and ran out more and more quickly. Wouldn't demand dictate the amount of food needed to serve guests? Why run out after only an hour into breakfast?I might consider this property in the future but would certainly investigate other options. I hope they upgrade soon, so the price can reflect quality.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r566100314-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
@@ -258,9 +363,6 @@
     <t>We had 6 people going on a cruise and needed a hotel to stay at the night before.  This hotel isn't close to any airports, so you will need an Uber or a rental car.  But, with the ability to fit all 6 in one room, it's worth it.We had the 2 room suite, with two separate rooms.  With the bathroom off the kitchen area, it worked perfectly!  The kitchen and sitting area were a good size and we never felt cramped.The breakfast buffet often ran out of items - waffle batter, oatmeal, eggs, etc and the room for the buffet is very very small - way too small for the large two building hotel that it is.Location - you can walk to McD's, Target and KFC. Staff was super friendly and helpful and happy.MoreShow less</t>
   </si>
   <si>
-    <t>March 2018</t>
-  </si>
-  <si>
     <t>Margaret H, Director of Sales at TownePlace Suites Houston Northwest, responded to this reviewResponded March 16, 2018</t>
   </si>
   <si>
@@ -321,6 +423,51 @@
     <t>We booked the two bedroom suite for two nights.  We checked in late on Friday and the lady at the desk was very nice.  The rooms were spacious.  The bathroom was small, but it meet our needs.  The breakfast is not the best and the breakfast area is too small.  If you want to get yogurt, waffles, bagel, eggs, juice and one meat choice, for breakfast, this is the place for you. The area was nice and we felt safe. Near shopping area.  20 mins to  NRG Stadium and  The Galleria Mall.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r543014740-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543014740</t>
+  </si>
+  <si>
+    <t>11/24/2017</t>
+  </si>
+  <si>
+    <t>Home Away From Home</t>
+  </si>
+  <si>
+    <t>Having been displaced by the Harvey floods in Texas, our stay in this hotel has softened the effects of the tragedy.  The facility with its full kitchen facility made it very convenient for us.  Rooms and daily services are excellent.  Daily breakfast and weekly dinners were beyond our expectation.  But what made our experience memorable and endearing is the warm treatment from the front desk staff, the room service personnel, the kitchen staff.  Made us feel at home and with family.  Special mention on Emma Gayo at the front desk on her professional and personal way of handling guests, who goes out of her way to look after our needs, giving us updates on our room reservations, also when dinner is ready.  Who needs Grandma with her around.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Having been displaced by the Harvey floods in Texas, our stay in this hotel has softened the effects of the tragedy.  The facility with its full kitchen facility made it very convenient for us.  Rooms and daily services are excellent.  Daily breakfast and weekly dinners were beyond our expectation.  But what made our experience memorable and endearing is the warm treatment from the front desk staff, the room service personnel, the kitchen staff.  Made us feel at home and with family.  Special mention on Emma Gayo at the front desk on her professional and personal way of handling guests, who goes out of her way to look after our needs, giving us updates on our room reservations, also when dinner is ready.  Who needs Grandma with her around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r540455428-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>540455428</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>Good place for stay</t>
+  </si>
+  <si>
+    <t>For someone who is going to some place close to Tomball, it´s a really good hotel, includes a kitchen and breakfast, a small business center and it´s close to Domino´s Pizza, KFC and McDonald´s.Housekeeping is not so good, however.MoreShow less</t>
+  </si>
+  <si>
+    <t>General  M, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded November 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2017</t>
+  </si>
+  <si>
+    <t>For someone who is going to some place close to Tomball, it´s a really good hotel, includes a kitchen and breakfast, a small business center and it´s close to Domino´s Pizza, KFC and McDonald´s.Housekeeping is not so good, however.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r527456630-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
@@ -402,6 +549,48 @@
     <t>I was so pleasantly surprised with this hotel!  We live in Houston, but wanted to get away so the kids could swim for Father's Day weekend and we booked the 2 bedroom suite.  It was so spacious, so realaxing and very comfortable.  The pool was very well upkept and the breakfast had a great selection.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r462340706-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462340706</t>
+  </si>
+  <si>
+    <t>02/23/2017</t>
+  </si>
+  <si>
+    <t>Excellent Value</t>
+  </si>
+  <si>
+    <t>Flew into Houston from Australia on the day of the Superbowl and wondered why my travel agent had trouble getting me a hotel room. This place turned out to be a gem. The staff were always very friendly and accomodating. Breakfast was included in the room rate which was a basic but fresh buffet. The room was large with a full kitchen.A good size desk was also in the room and WiFi was included in the rate also.Plenty of eating places near by.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>TPSHOUTN, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded February 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2017</t>
+  </si>
+  <si>
+    <t>Flew into Houston from Australia on the day of the Superbowl and wondered why my travel agent had trouble getting me a hotel room. This place turned out to be a gem. The staff were always very friendly and accomodating. Breakfast was included in the room rate which was a basic but fresh buffet. The room was large with a full kitchen.A good size desk was also in the room and WiFi was included in the rate also.Plenty of eating places near by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r462014167-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462014167</t>
+  </si>
+  <si>
+    <t>02/22/2017</t>
+  </si>
+  <si>
+    <t>Decent</t>
+  </si>
+  <si>
+    <t>We stayed here in conjunction with a soccer tournament. The hotel was LOUD but not for the reasons you are thinking. There seems to be very little substance to the floors, I could hear every move the people in the room above us made. The room was clean, ample sized and functioned perfectly for our needs. Nice to have a fridge and microwave for snacks in addition to a stove (which we did not use). Breakfast was average.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r455707239-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
@@ -420,9 +609,6 @@
     <t>January 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r454783590-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
@@ -463,6 +649,45 @@
   </si>
   <si>
     <t>In Houston at TownPlace suite. Per Marriott properties clean and seemingly safe. However, they have an issue with bugs apparently. Found the guy below in my kitchenette sink. I would rate 1 circle but the young lady who came with spray was prompt and nice. Marriott please fix this issue. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r424822494-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>424822494</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t>Home away from Home</t>
+  </si>
+  <si>
+    <t>This hotel was a lot better than what I was expecting. When I first walked in to the front desk I was greeted right away. After I get my room card and walked into the building I was staying in, I initially thought the building looked a little dated, so expected the room to be as well...... was I surprise when I opened the door to my room. I had a 2 bdrm suite for the weekend. I got a great price on it; almost what I would pay for a regular hotel room. This actually had 2 full size bedrooms! It had a nice bathroom, living room, small dining table and a full  kitchen with everything you would need. There were also TV's in each bedroom and in the living room. It was as big as my first apartment 20 years ago. LOL.The only small downside to the whole stay was the fact that there is only one laundry area and one place to get ice; and that was in the main building where the lobby is and is the opposite building from where I was staying. There was also someone above our room that kept running back and forth at about 6:30 in the morning; but I can't blame the hotel for that.  :)All and all, I will be staying there next time we have baseball tournaments there.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>This hotel was a lot better than what I was expecting. When I first walked in to the front desk I was greeted right away. After I get my room card and walked into the building I was staying in, I initially thought the building looked a little dated, so expected the room to be as well...... was I surprise when I opened the door to my room. I had a 2 bdrm suite for the weekend. I got a great price on it; almost what I would pay for a regular hotel room. This actually had 2 full size bedrooms! It had a nice bathroom, living room, small dining table and a full  kitchen with everything you would need. There were also TV's in each bedroom and in the living room. It was as big as my first apartment 20 years ago. LOL.The only small downside to the whole stay was the fact that there is only one laundry area and one place to get ice; and that was in the main building where the lobby is and is the opposite building from where I was staying. There was also someone above our room that kept running back and forth at about 6:30 in the morning; but I can't blame the hotel for that.  :)All and all, I will be staying there next time we have baseball tournaments there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r421658481-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>421658481</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>- Convenient location. There is Target and HEB nearby. Little further we have home depot, wall mart, and few places for shopping for dress. It was very useful since I was one of the few people who lived there without a car- Small kitchen with fridge, oven etc, although a non stick fry pan would have been very helpful- Nice bed, pool, gym and wifi- Free breakfast all all days and dinner(Tuesday and Wednesday), but the breakfast will be boring after few days</t>
+  </si>
+  <si>
+    <t>August 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r406804206-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
@@ -531,6 +756,53 @@
     <t>Location is convenient.  Currently replacing the furniture with new, modern furnishings.Beds are comfy, separate room for the breakfast.  Speakman Shower heads, love those, best shower ever.  small kitchen is really helpful.  we would stay here again.we also a two bed suite at the end of the hall</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r376258715-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>376258715</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t>older property, clean, basic;  no hot water for couple of days</t>
+  </si>
+  <si>
+    <t>This looked like an older Marriott property; hallways and room felt dated and somewhat cheaply built, but were clean and well maintained.  Room was spacious and had had some upgrades over the years.  Staff were friendly.   
+Lots of customers -- parking lot tended to be near full.  Breakfast was OK.  Free shuttle to nearby offices (lots of on-a-budget business travelers here).   Internet for a fee.  
+Minimal lobby, no place to sit or wait for anyone (other than a bench outside).  Lobby does have a small shop / snacks supply, but fair warning, no alcohol of any kind, so if you want a beer or glass of wine after work, BYOB.  No food but there are restaurants not far away, and you can also order in or buy groceries and cook in the little kitchen.  
+Small exercise room with stationary bike, treadmill, elliptical and set of free weights. However the smallest / lightest free weight was 15 pounds, so too heavy for many of the exercises I do (I'm a midsized woman).  Small pool outside. 
+Biggest complaint was no hot water for two days.  They kept saying it'd be repaired but it took significantly longer than originally estimated.  They did comp part of the room fee (which I'm sure my company appreciated) but I'd rather have spent the money and been able to take hot showers.  Houston's climate is humid and warm -- you need a shower before or after work....This looked like an older Marriott property; hallways and room felt dated and somewhat cheaply built, but were clean and well maintained.  Room was spacious and had had some upgrades over the years.  Staff were friendly.   Lots of customers -- parking lot tended to be near full.  Breakfast was OK.  Free shuttle to nearby offices (lots of on-a-budget business travelers here).   Internet for a fee.  Minimal lobby, no place to sit or wait for anyone (other than a bench outside).  Lobby does have a small shop / snacks supply, but fair warning, no alcohol of any kind, so if you want a beer or glass of wine after work, BYOB.  No food but there are restaurants not far away, and you can also order in or buy groceries and cook in the little kitchen.  Small exercise room with stationary bike, treadmill, elliptical and set of free weights. However the smallest / lightest free weight was 15 pounds, so too heavy for many of the exercises I do (I'm a midsized woman).  Small pool outside. Biggest complaint was no hot water for two days.  They kept saying it'd be repaired but it took significantly longer than originally estimated.  They did comp part of the room fee (which I'm sure my company appreciated) but I'd rather have spent the money and been able to take hot showers.  Houston's climate is humid and warm -- you need a shower before or after work.  The water problem, plus the older and cheaper look of the place, and a few of the other reviews about power outages, does make me wonder how well this place is holding up as it ages.   There are several other hotels close by, I'll likely try one of those next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>TPSHOUTN, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded May 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2016</t>
+  </si>
+  <si>
+    <t>This looked like an older Marriott property; hallways and room felt dated and somewhat cheaply built, but were clean and well maintained.  Room was spacious and had had some upgrades over the years.  Staff were friendly.   
+Lots of customers -- parking lot tended to be near full.  Breakfast was OK.  Free shuttle to nearby offices (lots of on-a-budget business travelers here).   Internet for a fee.  
+Minimal lobby, no place to sit or wait for anyone (other than a bench outside).  Lobby does have a small shop / snacks supply, but fair warning, no alcohol of any kind, so if you want a beer or glass of wine after work, BYOB.  No food but there are restaurants not far away, and you can also order in or buy groceries and cook in the little kitchen.  
+Small exercise room with stationary bike, treadmill, elliptical and set of free weights. However the smallest / lightest free weight was 15 pounds, so too heavy for many of the exercises I do (I'm a midsized woman).  Small pool outside. 
+Biggest complaint was no hot water for two days.  They kept saying it'd be repaired but it took significantly longer than originally estimated.  They did comp part of the room fee (which I'm sure my company appreciated) but I'd rather have spent the money and been able to take hot showers.  Houston's climate is humid and warm -- you need a shower before or after work....This looked like an older Marriott property; hallways and room felt dated and somewhat cheaply built, but were clean and well maintained.  Room was spacious and had had some upgrades over the years.  Staff were friendly.   Lots of customers -- parking lot tended to be near full.  Breakfast was OK.  Free shuttle to nearby offices (lots of on-a-budget business travelers here).   Internet for a fee.  Minimal lobby, no place to sit or wait for anyone (other than a bench outside).  Lobby does have a small shop / snacks supply, but fair warning, no alcohol of any kind, so if you want a beer or glass of wine after work, BYOB.  No food but there are restaurants not far away, and you can also order in or buy groceries and cook in the little kitchen.  Small exercise room with stationary bike, treadmill, elliptical and set of free weights. However the smallest / lightest free weight was 15 pounds, so too heavy for many of the exercises I do (I'm a midsized woman).  Small pool outside. Biggest complaint was no hot water for two days.  They kept saying it'd be repaired but it took significantly longer than originally estimated.  They did comp part of the room fee (which I'm sure my company appreciated) but I'd rather have spent the money and been able to take hot showers.  Houston's climate is humid and warm -- you need a shower before or after work.  The water problem, plus the older and cheaper look of the place, and a few of the other reviews about power outages, does make me wonder how well this place is holding up as it ages.   There are several other hotels close by, I'll likely try one of those next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r373905347-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>373905347</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>In town for a funeral</t>
+  </si>
+  <si>
+    <t>This was a last minute reservation and we were very pleased with our choice. Greatest attraction was location. Also a free shuttle anywhere within 5 miles. Handy when you are traveling without a car.   Room with kitchenette and full size refrigerator. Clean and cozy.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r373075140-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
@@ -600,6 +872,51 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r333455959-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>333455959</t>
+  </si>
+  <si>
+    <t>12/16/2015</t>
+  </si>
+  <si>
+    <t>Had a fun!!!</t>
+  </si>
+  <si>
+    <t>Suites were nice with all the amenities. Hotel Staff was excellent. Breakfast has too many options to kick start your day. Location was perfect for us to go around. There were many restaurants around including KFC with just a little walk ahead.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r331860761-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>331860761</t>
+  </si>
+  <si>
+    <t>12/10/2015</t>
+  </si>
+  <si>
+    <t>Not very good - Had extra visitors in my room</t>
+  </si>
+  <si>
+    <t>Of the roach variety.  Just 2, but where there is one, there are many or so I am told.  Reserved and checked in later than usual due to a change in co-workers travel plans.  Check-in was seamless.  Lobby area is small, but decent.  Got to room (small studio) and turned on the light in the kitchenette.  That's when I saw my new roommates (assuming roaches).  Quickly killed them and hoped to not see any more (I did not).  Room was tiny and TV was mounted on the half wall that doubles as the backsplash for the kitchenette.  Needless to say, the TV is approximately 2 feet off the floor in a really weird position.  I dont think I'll need to be back at this location thankfully.MoreShow less</t>
+  </si>
+  <si>
+    <t>Juli A, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded December 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2015</t>
+  </si>
+  <si>
+    <t>Of the roach variety.  Just 2, but where there is one, there are many or so I am told.  Reserved and checked in later than usual due to a change in co-workers travel plans.  Check-in was seamless.  Lobby area is small, but decent.  Got to room (small studio) and turned on the light in the kitchenette.  That's when I saw my new roommates (assuming roaches).  Quickly killed them and hoped to not see any more (I did not).  Room was tiny and TV was mounted on the half wall that doubles as the backsplash for the kitchenette.  Needless to say, the TV is approximately 2 feet off the floor in a really weird position.  I dont think I'll need to be back at this location thankfully.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r328923084-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
@@ -663,6 +980,51 @@
     <t>Well the most annoying thing about this hotel is every time a storm rolls through the power goes out for hours....what kind of hotel doesn't have back up generators? Plus I was on the 4th floor so I had to walk up 4 flights of stairs with a bad knee.  Housekeeping would very incompatantly not leave extra toilet paper and the dishwasher leaked water all over the kitchen floor!!  Also agree with the breakfast area being so small with crap tons of people in it!!  The staff was polite and friendly but that was about the only positive!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r265363042-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>265363042</t>
+  </si>
+  <si>
+    <t>04/12/2015</t>
+  </si>
+  <si>
+    <t>All good, no complaints</t>
+  </si>
+  <si>
+    <t>This is a good 3-star property. The rooms are clean and comfortable and were ideal for our group of 7. It is about 25 minutes from the airport and a 30-40 minute drive to downtown Houston. Very friendly &amp; helpful staff. The breakfast is fairly basic but good.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r260579321-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260579321</t>
+  </si>
+  <si>
+    <t>03/19/2015</t>
+  </si>
+  <si>
+    <t>Let down !</t>
+  </si>
+  <si>
+    <t>Booked the place for 5 days and I have to say it was a huge let down. The parking lot gave off a whiff of manure. Maybe they were treating the lawns, but the smell was awful. The breakfast area is really small, cramped and crowded. There was no one keeping an eye on the needs of the guests in there. Food was replenished ONLY after it was completely over. I called up the reception for house keeping and I found the lady a little curt. The bath tub is rather tiny. The furniture is dated and the view is the expressway ! On the up side they have Paul Mitchell hair and body products. The kitchen was very functional with a cooking range as well. So yes, you can cook a nice meal. Bowls, plates and cutlery is all provided. The beds are nice and comfortable. The location is pretty nice. Its close to a lot of restaurants, so food is not a problem at any part of the day or night.  I guess I expected more, with the price tag that this room came with but it did not wow me at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Chris G, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded March 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2015</t>
+  </si>
+  <si>
+    <t>Booked the place for 5 days and I have to say it was a huge let down. The parking lot gave off a whiff of manure. Maybe they were treating the lawns, but the smell was awful. The breakfast area is really small, cramped and crowded. There was no one keeping an eye on the needs of the guests in there. Food was replenished ONLY after it was completely over. I called up the reception for house keeping and I found the lady a little curt. The bath tub is rather tiny. The furniture is dated and the view is the expressway ! On the up side they have Paul Mitchell hair and body products. The kitchen was very functional with a cooking range as well. So yes, you can cook a nice meal. Bowls, plates and cutlery is all provided. The beds are nice and comfortable. The location is pretty nice. Its close to a lot of restaurants, so food is not a problem at any part of the day or night.  I guess I expected more, with the price tag that this room came with but it did not wow me at all.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r260337173-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
@@ -729,6 +1091,51 @@
     <t>2 bedroom, 1 bath with full kitchen, and a sofa sleeper - very convenient for our family.  It would be better if there were 2 bedroom suites with 2 baths.  We asked for additional towels and bathroom necessities.  These were provided promptly and with a 'NO PROBLEM'.  Breakfast is included, it was the usual small buffet breakfast.  Would be great if the small omelets came without the ham for us vegetarians or non-meat eaters.  Seriously, the tiny little cubes of ham are so small who could have tasted that anyway. Suggestion - get individually wrapped raisins/nuts for the oatmeal bar.  I saw many HANDS in those bowls instead of using spoon provided to serve portions for the oatmeal.  Secondly MOVE the oatmeal location, it was sandwiched in between the meat hotplate and the eggs and the brown sugar, raisins, and nuts crammed in there too.  Breakfast room at this location is entirely too small.  Our room was clean, the furniture was dated.  Linens and bedding were clean and VERY comfortable. Fold out couch in the living room needs to be replaced.  Small, very small, business center right in the middle of the entrance.  No privacy there whatsoever. Still, for short term stay, this is a good location and property.  Certainly not the best I have ever been in but adequate.  The property could use an update.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r251803899-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251803899</t>
+  </si>
+  <si>
+    <t>01/30/2015</t>
+  </si>
+  <si>
+    <t>Was very good for my needs</t>
+  </si>
+  <si>
+    <t>My company offices are just across the street from this hotel so the location was great for meThe room is large, double bed, sofa, desk and small kitchenThe kitchen have microwave,oven, electric stove, dishwasherCan cook a small meal but no table to eat itRoom very clean and organized every dayBreakfast- scramble eggs, burger, self made waffle and some yogurts and ornage, Apple and cherry juiceBut I was missing some vegetables and good coffeeOverall experience is goof</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r245996676-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>245996676</t>
+  </si>
+  <si>
+    <t>12/26/2014</t>
+  </si>
+  <si>
+    <t>Worst Marriott Property Experience Ever</t>
+  </si>
+  <si>
+    <t>Our rooms were not cleaned, nor were any fresh towels left after our first night on Christmas Eve. We excused it by thinking ok everyone in house keeping was off for Christmas Day. We got fresh towels from the front desk and kept it moving. Upon returning to our room after the next night stay - the day after Christmas; the bed was still in shambles, the room in disarray and no fresh towels! Even after tipping the housekeeper to make sure our room was taken care of while we were out. The property itself was nice however, the service did not come close to anything we are accustom to receiving from Marriott.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Chris G, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded December 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2014</t>
+  </si>
+  <si>
+    <t>Our rooms were not cleaned, nor were any fresh towels left after our first night on Christmas Eve. We excused it by thinking ok everyone in house keeping was off for Christmas Day. We got fresh towels from the front desk and kept it moving. Upon returning to our room after the next night stay - the day after Christmas; the bed was still in shambles, the room in disarray and no fresh towels! Even after tipping the housekeeper to make sure our room was taken care of while we were out. The property itself was nice however, the service did not come close to anything we are accustom to receiving from Marriott.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r242550630-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
@@ -771,9 +1178,6 @@
     <t>I attended a birthday celebration for a friend in Cypress and booked the 2 bedroom suite which is like a small apartment. I was quite pleased with the room-it was clean and the front desk was very helpful in getting a cab for us.  I checked in and out with no problems whatsoever. Parking was convenient. My only complaint was the waffle machine was broken and I wanted waffles! Other than that, it was a great stay.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r231272427-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
@@ -799,6 +1203,57 @@
   </si>
   <si>
     <t>Service at checkin was good.  Not sure how it is trying to be Eco friendly when we got into the room and the A/C was set at 60 degrees.  Breakfast was so so.  A lot of street noise, but was too tired to care this visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r229535273-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>229535273</t>
+  </si>
+  <si>
+    <t>09/17/2014</t>
+  </si>
+  <si>
+    <t>Just about average</t>
+  </si>
+  <si>
+    <t>Checked in really late at night and was given an accessible room. The refrigerator was placed right next to the bed and the TV at a very inconvenient corner. The refrigerator kept going on and off all night - very annoying.Did not try the breakfast in the morning, seemed very basic though. Headed over to the nearby 'the egg &amp; I' for breakfast instead - turned out to be good choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris G, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded September 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2014</t>
+  </si>
+  <si>
+    <t>Checked in really late at night and was given an accessible room. The refrigerator was placed right next to the bed and the TV at a very inconvenient corner. The refrigerator kept going on and off all night - very annoying.Did not try the breakfast in the morning, seemed very basic though. Headed over to the nearby 'the egg &amp; I' for breakfast instead - turned out to be good choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r212474273-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>212474273</t>
+  </si>
+  <si>
+    <t>06/28/2014</t>
+  </si>
+  <si>
+    <t>Good Hotel Good Location</t>
+  </si>
+  <si>
+    <t>We stayed there for 3 nights.  I liked being on the first floor, but next time will request NOT to be right by the outside pool.  It was noisy.  The room is nice.  It had a full kitchen, couch, desk/chair, and queen bed.  Breakfast is complimentary with waffles, fruit, milk, juice, coffee, prepackaged muffins, cereal, oatmeal and bacon/eggs.  It's not amazing food, but it was ok.  Every Tuesday night they offer free beer and wine with some sort of food.  We had wings and salad.  It was a nice gesture.  Staff is super friendly and we enjoyed the stay. Great location. Lots of stores and restaurants in the area.The only thing I wish is that they had a hot tub.  An my husband prefers a chest of drawers over a couch-so when he is using the desk, he has a place to put his suitcase.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Chris G, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded June 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2014</t>
+  </si>
+  <si>
+    <t>We stayed there for 3 nights.  I liked being on the first floor, but next time will request NOT to be right by the outside pool.  It was noisy.  The room is nice.  It had a full kitchen, couch, desk/chair, and queen bed.  Breakfast is complimentary with waffles, fruit, milk, juice, coffee, prepackaged muffins, cereal, oatmeal and bacon/eggs.  It's not amazing food, but it was ok.  Every Tuesday night they offer free beer and wine with some sort of food.  We had wings and salad.  It was a nice gesture.  Staff is super friendly and we enjoyed the stay. Great location. Lots of stores and restaurants in the area.The only thing I wish is that they had a hot tub.  An my husband prefers a chest of drawers over a couch-so when he is using the desk, he has a place to put his suitcase.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r199777930-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
@@ -884,6 +1339,48 @@
     <t>I would like to start by saying that we are platinum members with Marriott and spend 90 plus nights a year in there properties. This "hotel" misses the mark completely. We had a two week stay. I will divide my review by areas vs one long review of everything mixed together.
 The Front Desk: no one is ever at the front desk, you kind of have to walk up there and say "hello" and someone will come walking out from the back somewhere. The front desk staff is also very uninformed about things to do around the area and also the normal day to day operations of the hotel (but more on that later) Over all they didn't seem very professional. 
 The room: I will include some pictures but the room is beyond run down (thats where the whole "motel" thing comes from) just old, dated and in bad shape. It appears they put in newer appliances in the kitchen but everything else was neglected. The furniture was torn, strained and dented in the living room. The bedrooms had the worse mattresses I have ever slept on (its definitely not a Marriott mattress) The mattress would just sink when you slept on it and the linens were cheap and some did not even match. The room was described on the website as a bedroom/ 2 bathroom but it was only one very small bathroom, very very small. In the kitchen...I would like to start by saying that we are platinum members with Marriott and spend 90 plus nights a year in there properties. This "hotel" misses the mark completely. We had a two week stay. I will divide my review by areas vs one long review of everything mixed together.The Front Desk: no one is ever at the front desk, you kind of have to walk up there and say "hello" and someone will come walking out from the back somewhere. The front desk staff is also very uninformed about things to do around the area and also the normal day to day operations of the hotel (but more on that later) Over all they didn't seem very professional. The room: I will include some pictures but the room is beyond run down (thats where the whole "motel" thing comes from) just old, dated and in bad shape. It appears they put in newer appliances in the kitchen but everything else was neglected. The furniture was torn, strained and dented in the living room. The bedrooms had the worse mattresses I have ever slept on (its definitely not a Marriott mattress) The mattress would just sink when you slept on it and the linens were cheap and some did not even match. The room was described on the website as a bedroom/ 2 bathroom but it was only one very small bathroom, very very small. In the kitchen they provided dish washing liquid but no sponge or scrub (what do they expect you to use?) I picked one up at the grocery store. The Hotel kitchen/ Kitchen staff: This was by far the worse. The staff is not just unprofessional but rude to boot. On more than a few mornings they ran out of food 30 to 40 mins before breakfast was over. This is a sample of one of the conversations I had "excuse me ma'am are you bringing out anymore omelets ? no we ran out . you ran out? theres like 40 minutes left? yeah a lot of people came to breakfast today we weren't expecting so many. (You think they would know how many rooms are occupied at the hotel) umm ok .. ma'am theres no waffles, are you getting any? no no waffles today. (thats ok I will just have a bagel) ma'am, there no bagels and no bread of any kind actually, is there any in the back? no we ran out of that too. (oh I see cereal, I will have cereal) oh ma'am , is there any milk left to have with cereal? no we ran out. well what do you have? We have some pancakes left. I replied with I don't like pancakes is there anything else you can dig up? she replies with "everybody like pancakes" and walks away (which is funny because I just told her I didn't like pancakes so obviously not everyone likes pancakes) So I had juice for breakfast. The quality of the food in general when they did have it was horrible, just standard microwave fair. On tuesdays and Wednesday's they host 2 hour or so "cocktail" type thing where they provide beer and wine along with some sort of appetizer. We weren't even informed of this until we saw it written on a board and inquired with the front desk. so on wednesday  nov 27, We made our way downstairs for the "cocktail hour thing" and instead of it being open there was a sign that said something along the lines of "no snack today because of the holiday". I walked to the front desk and asked what happen to appetizer night (looking as to how the holiday was the following evening I don't understand how that would prevent this thing from being hosted) he again repeated the holiday thing, which made no sense. Thursday was thanksgiving and we were hosting some family so we didn't use many services that day. On friday morning I woke up for breakfast and instead of it being open there is a sign that said breakfast has been delayed due to the holiday (the holiday was yesterday and how long can they use this excuse for?) no breakfast (again) The kitchen staff seemed very bothered by the fact that people where there everyday eating food. When it was decided that services would be closed or delayed they could of  slid a paper with that information under guest doors so that people can plan accordantly .The only positive thing here is that the location of this hotel is amazing. Right off a mayor highway and near more restaurants and shops than you will ever need.I would never stay at this hotel again nor would I recommend it to anyone. I can't believe its even associated with Marriott.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r189268859-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>189268859</t>
+  </si>
+  <si>
+    <t>01/01/2014</t>
+  </si>
+  <si>
+    <t>Horrible bed!</t>
+  </si>
+  <si>
+    <t>For a Marriott one would expect quality mattresses, well not at this TownPlace Suites.  I have not slept on a worse bed since I was on a Navy ship back in the 1960's.  There is no dresser, so you have no place to put clothes if you are there for any length of time.  While, they have a nice waffle iron to make your own, they ran out of the waffle mix and the attended was not very attentive.There was a baby bottle and a milk container near the entrance to the pool that sat there for over 30 hours, and no one removed them.  Indicates how attentive the staff was to their property.While they advertise this brand for long term stays, two days was enough for us to put the brand on the do not stay again list.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Chris G, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded January 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2014</t>
+  </si>
+  <si>
+    <t>For a Marriott one would expect quality mattresses, well not at this TownPlace Suites.  I have not slept on a worse bed since I was on a Navy ship back in the 1960's.  There is no dresser, so you have no place to put clothes if you are there for any length of time.  While, they have a nice waffle iron to make your own, they ran out of the waffle mix and the attended was not very attentive.There was a baby bottle and a milk container near the entrance to the pool that sat there for over 30 hours, and no one removed them.  Indicates how attentive the staff was to their property.While they advertise this brand for long term stays, two days was enough for us to put the brand on the do not stay again list.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r185450477-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>185450477</t>
+  </si>
+  <si>
+    <t>11/21/2013</t>
+  </si>
+  <si>
+    <t>Best Hotel Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stay at about 40 hotels a year. The staff here are probably the nicest in the industry. At first I thought just the desk clerk was nice but I used the shuttle and all the staff were wonderful. Even the cleaning staff are clearly and bright. If I were a Marriott I would promote the whole staff to a Renaissance HotelRooms are just adequate but staff is outstanding </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r181434707-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
@@ -966,15 +1463,64 @@
     <t>Staying in Houston in the summer can be challenging, but this hotel made the stay as comfortable as possible. Just the right amount of air conditioning (a huge deal at this time of year) made going in and out of the buildings feel right. The suite was large, had everything I needed, and more, including an up-to-date and clean kitchen, plenty of room to spread out and work, and fairly good wireless connectivity. The included breakfast choices were many (oatmeal, eggs/meat, cereal, waffles, fruit, energy bars, toast, coffee, juices, water, yogurts, etc.). Which is good because there's not a lot within walking distance to/from the hotel. If you want to go to a restaurant, bring a car because not only are there no/limited sidewalks in the area, restaurants are about 1/2 mile or more away. That's the only downside, really. The staff is super friendly and accommodating, and are always ready with a smile and a "Hello!" I like it here and I will be coming back.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r175840562-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>175840562</t>
+  </si>
+  <si>
+    <t>09/04/2013</t>
+  </si>
+  <si>
+    <t>Ultimate stay</t>
+  </si>
+  <si>
+    <t>All the facilities and services are very good.Though it is hotel, it feels like a Flat with all facilities.Kitchen was also quite good.The morning breakfast was very good with ample of options that too with Pure Veg options (since i am purely vegetarian)Also location and other facilities are very good.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>All the facilities and services are very good.Though it is hotel, it feels like a Flat with all facilities.Kitchen was also quite good.The morning breakfast was very good with ample of options that too with Pure Veg options (since i am purely vegetarian)Also location and other facilities are very good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r174045371-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>174045371</t>
+  </si>
+  <si>
+    <t>08/25/2013</t>
+  </si>
+  <si>
+    <t>Nice Extended Stay Hotel!</t>
+  </si>
+  <si>
+    <t>My stay at this hotel in a two bedroom suit was very good except for one thing, and that thing was that one night, as I was preparing to take a shower, I unfolded the towel they leave for you to step on when you get out of the tub and a huge cockroach crawled up my arm and then out into the living room. It was pretty gross, but what can you do? It happened. That was the only occasion on which I witness the filthy creatures, but it was significant. 
+The room is decent. It is a remodeled older hotel, so it still has some old and outdated elements mixed with new elements like granite counter tops, flat screen televisions, and stainless steel appliances. The old feelings is present nonetheless. 
+The service from the staff was top notch. The housekeeping staff was able to accommodate to my baby's awkward sleeping schedule, the food attendant, Dora, was great, and the front desk staff was always helpful and attentive.
+The food was also great! There is daily breakfast with essential staples like oatmeal, cereal, milk, coffee, and eggs, as well as muffins, pastries, waffles, yogurt, granola bars, and juices. The manager also provided dinner on Tuesdays and Wednesdays at this location. That was great plus! 
+Parking was acceptable. There was a pool, but I didn't use it; however, I saw many families who seemed to enjoy it. 
+The location of...My stay at this hotel in a two bedroom suit was very good except for one thing, and that thing was that one night, as I was preparing to take a shower, I unfolded the towel they leave for you to step on when you get out of the tub and a huge cockroach crawled up my arm and then out into the living room. It was pretty gross, but what can you do? It happened. That was the only occasion on which I witness the filthy creatures, but it was significant. The room is decent. It is a remodeled older hotel, so it still has some old and outdated elements mixed with new elements like granite counter tops, flat screen televisions, and stainless steel appliances. The old feelings is present nonetheless. The service from the staff was top notch. The housekeeping staff was able to accommodate to my baby's awkward sleeping schedule, the food attendant, Dora, was great, and the front desk staff was always helpful and attentive.The food was also great! There is daily breakfast with essential staples like oatmeal, cereal, milk, coffee, and eggs, as well as muffins, pastries, waffles, yogurt, granola bars, and juices. The manager also provided dinner on Tuesdays and Wednesdays at this location. That was great plus! Parking was acceptable. There was a pool, but I didn't use it; however, I saw many families who seemed to enjoy it. The location of the hotel is very good. it's close to the freeway and stores like Target, HEB, and restaurants. Very safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>My stay at this hotel in a two bedroom suit was very good except for one thing, and that thing was that one night, as I was preparing to take a shower, I unfolded the towel they leave for you to step on when you get out of the tub and a huge cockroach crawled up my arm and then out into the living room. It was pretty gross, but what can you do? It happened. That was the only occasion on which I witness the filthy creatures, but it was significant. 
+The room is decent. It is a remodeled older hotel, so it still has some old and outdated elements mixed with new elements like granite counter tops, flat screen televisions, and stainless steel appliances. The old feelings is present nonetheless. 
+The service from the staff was top notch. The housekeeping staff was able to accommodate to my baby's awkward sleeping schedule, the food attendant, Dora, was great, and the front desk staff was always helpful and attentive.
+The food was also great! There is daily breakfast with essential staples like oatmeal, cereal, milk, coffee, and eggs, as well as muffins, pastries, waffles, yogurt, granola bars, and juices. The manager also provided dinner on Tuesdays and Wednesdays at this location. That was great plus! 
+Parking was acceptable. There was a pool, but I didn't use it; however, I saw many families who seemed to enjoy it. 
+The location of...My stay at this hotel in a two bedroom suit was very good except for one thing, and that thing was that one night, as I was preparing to take a shower, I unfolded the towel they leave for you to step on when you get out of the tub and a huge cockroach crawled up my arm and then out into the living room. It was pretty gross, but what can you do? It happened. That was the only occasion on which I witness the filthy creatures, but it was significant. The room is decent. It is a remodeled older hotel, so it still has some old and outdated elements mixed with new elements like granite counter tops, flat screen televisions, and stainless steel appliances. The old feelings is present nonetheless. The service from the staff was top notch. The housekeeping staff was able to accommodate to my baby's awkward sleeping schedule, the food attendant, Dora, was great, and the front desk staff was always helpful and attentive.The food was also great! There is daily breakfast with essential staples like oatmeal, cereal, milk, coffee, and eggs, as well as muffins, pastries, waffles, yogurt, granola bars, and juices. The manager also provided dinner on Tuesdays and Wednesdays at this location. That was great plus! Parking was acceptable. There was a pool, but I didn't use it; however, I saw many families who seemed to enjoy it. The location of the hotel is very good. it's close to the freeway and stores like Target, HEB, and restaurants. Very safe.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r174023998-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
     <t>174023998</t>
   </si>
   <si>
-    <t>08/25/2013</t>
-  </si>
-  <si>
     <t>Magnificent spot for several families</t>
   </si>
   <si>
@@ -999,9 +1545,6 @@
     <t>I had traveled and stayed at this hotel several times.  It is convenient for me since it is close to where I need to be early in the morning. This is a suite type hotel with partial kitchen, full size fridge and cooking facility.  The room is clean and quite.  The beds are just right.  The A/C ran fine but somehow it did not stayed at the correct set temperature.  I had to set it down to 65F but yet I do not feel that cold.  The bathroom is good size, but the bathroom counter is kind if small.  I arrived real late at night and the attendant was very nice.  Overall, I think this is a good quite hotel to stay for business.MoreShow less</t>
   </si>
   <si>
-    <t>August 2013</t>
-  </si>
-  <si>
     <t>morgan_gurung, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded August 20, 2013</t>
   </si>
   <si>
@@ -1038,15 +1581,60 @@
     <t>This was my first stay at the TownePlace Suites Houston Northwest.  If you are a business traveller and happen to be visiting the Hewlett-Packard (old Compaq) campus, this hotel is the one for you.  It's withing walking distance of the HP campus.  The complimentary breakfast was great and included scrambled eggs, waffles, cereal, oatmeal, yoguart, pastries, fruit coffee and juices.  The rooms were nice size but they don't have any king size beds at this property.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r167015682-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167015682</t>
+  </si>
+  <si>
+    <t>07/10/2013</t>
+  </si>
+  <si>
+    <t>Only if you have to</t>
+  </si>
+  <si>
+    <t>With the other Marriott being booked, this was my only option, and what an honor to get a Motel 6 service!  Check that, there is no service. Not a pair of slippers or a bathrobe. No bottled water in the room.  Hy, the Internet is free, thanks for that!  Staff is very friendly, and the room seemed clean, but poorly laid out, with a tiny bathroom and a very small kitchen. I suppose if you're on an extended work trip and don't need to live in the lap of luxury, this place would do just fine...MoreShow less</t>
+  </si>
+  <si>
+    <t>morgan_gurung, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded July 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2013</t>
+  </si>
+  <si>
+    <t>With the other Marriott being booked, this was my only option, and what an honor to get a Motel 6 service!  Check that, there is no service. Not a pair of slippers or a bathrobe. No bottled water in the room.  Hy, the Internet is free, thanks for that!  Staff is very friendly, and the room seemed clean, but poorly laid out, with a tiny bathroom and a very small kitchen. I suppose if you're on an extended work trip and don't need to live in the lap of luxury, this place would do just fine...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r158632948-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158632948</t>
+  </si>
+  <si>
+    <t>04/23/2013</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel for two nights. Only a few minor things to write about. One was the noise from the rooms above as it is very easy to hear the people walking on the floor above you. The wait staff is very friendly and helpful for trying to answer questions.  My only other thought is if you are allergy sensitive, the fragrance used during cleaning/air freshening is very strong and stays for days in the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>morgan_gurung, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded May 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2013</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel for two nights. Only a few minor things to write about. One was the noise from the rooms above as it is very easy to hear the people walking on the floor above you. The wait staff is very friendly and helpful for trying to answer questions.  My only other thought is if you are allergy sensitive, the fragrance used during cleaning/air freshening is very strong and stays for days in the room.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r158578593-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
     <t>158578593</t>
   </si>
   <si>
-    <t>04/23/2013</t>
-  </si>
-  <si>
     <t>Great Rooms at Excellent prices</t>
   </si>
   <si>
@@ -1054,12 +1642,6 @@
   </si>
   <si>
     <t>April 2013</t>
-  </si>
-  <si>
-    <t>morgan_gurung, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded May 1, 2013</t>
-  </si>
-  <si>
-    <t>Responded May 1, 2013</t>
   </si>
   <si>
     <t>Traveling with family?  Want a great large studio or suite room with kitchen to save money on restaurants?  This is the place!!  Rooms are clean, large, and very inviting.  Kitchens are completely equipped with utensils and cookware.  Stores are nearby for grocery shopping. Complimentary breakfast is  excellent  and offers selections for any age group.  I'd definitely stay here again..More</t>
@@ -1113,6 +1695,59 @@
   <si>
     <t>This property is across the street from the HP Houston Campus (the address should be Compaq Center Drive) and is a typical TownePlace Suites.  I've looked at several of the other reviews and I really don't know what the others were expecting.  Marriott has 3 tiers of long-term stay properties - Residence Inn, Springhill Suites, and TownePlace Suites and all of them feature studio or apartment layouts, LIMITED daily housekeeping, and expanded kitchen features.  TownePlace is the most "economical" of the group and it is appointed as such - don't expect the Courtyard next door but you won't pay for it either.
 This property has had some upgrades since I last stayed here but could probably use a few more since it has been around for a while.  I stayed for a week on an HP rate for an event at their campus and I had no significant complaints.  These were the minor glitches that I encountered: the granite kitchen counter and ledge near the coffee maker was filthy when I checked in and I had to clean off the sticky spills, rings, and stuff that nobody caught; the thermostat on the A/C mounted below the window was off by several degrees but it worked fine and was quiet enough; the window screens were torn up so leaving the window open was problematic; and there was some loud music from an adjacent strip mall pub on Thursday night.  None of...This property is across the street from the HP Houston Campus (the address should be Compaq Center Drive) and is a typical TownePlace Suites.  I've looked at several of the other reviews and I really don't know what the others were expecting.  Marriott has 3 tiers of long-term stay properties - Residence Inn, Springhill Suites, and TownePlace Suites and all of them feature studio or apartment layouts, LIMITED daily housekeeping, and expanded kitchen features.  TownePlace is the most "economical" of the group and it is appointed as such - don't expect the Courtyard next door but you won't pay for it either.This property has had some upgrades since I last stayed here but could probably use a few more since it has been around for a while.  I stayed for a week on an HP rate for an event at their campus and I had no significant complaints.  These were the minor glitches that I encountered: the granite kitchen counter and ledge near the coffee maker was filthy when I checked in and I had to clean off the sticky spills, rings, and stuff that nobody caught; the thermostat on the A/C mounted below the window was off by several degrees but it worked fine and was quiet enough; the window screens were torn up so leaving the window open was problematic; and there was some loud music from an adjacent strip mall pub on Thursday night.  None of these were deal breakers, the daily towel and bed making service was reliable, the Ba was wiped down each day and the room was otherwise generally clean.  I had a 3rd floor room in the South building on the South side so probably avoided any issues that might come from being on the ground floor.  It was not noisy other than the Pub on Thursday night.The staff were quite friendly in the office, I never saw any of the cleaning staff.  The Breakfast was typical of what you find at other value chains (cereal, juice, fruit, pastries, etc.) and seemed to be well maintained.  Parking was adequate and shares a large area with the adjacent Courtyard.  The Courtyard now has their "Bistro" so you can walk next door for food or drink.  It's a little farther to walk to the strip mall for other food options and beyond the adjacent highway to reach other restaurants.  I think the hotel will shuttle you to nearby restaurants if you don't have a car.Bottom line is I would stay here again knowing that this is not going to be a full service facility and knowing that it is an "economy" class property.  It is very good for the class of property and the relative price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r140426678-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>140426678</t>
+  </si>
+  <si>
+    <t>09/16/2012</t>
+  </si>
+  <si>
+    <t>Red ants, Giant Cockroaches, Terrible Service, Flooding and Loud</t>
+  </si>
+  <si>
+    <t>Stayed here the week of September 9th - for an entire week.  Once I saw the red ants the minute I walked into my room (immediately after checking in) - I should've walked right out and checked in at the nearest Hilton.  
+Ants kept appearing throughout the week.  The place was loud, meaning the building is poorly built. I heard every footstep, every door shut and the air conditioning unit and fridge were extremely loud. In order to get some sleep, I finally turned off the air conditioning, which made it tough to sleep because it got warm in my room.
+The 4th day, I found giant cockroaches in the bathroom.  I am not sure if they were cockroaches, actually - don't care - they were nearly 2 inches long, nasty and had no place in my room.  
+It poured one day last week, and when a colleague entered his room after a long day at the office, his room was flooded.  
+This is supposed to be a business friendly hotel.  I needed to print a document before heading into the office.  Went into the lobby where the computer and printer were.  A guest was on the computer (watching women's wrestling, ok whatever) - so I asked the receptionist if she could print a file for me using one of their computers in the back.  She couldn't because the computers were not turned on (and she's not sure how to...Stayed here the week of September 9th - for an entire week.  Once I saw the red ants the minute I walked into my room (immediately after checking in) - I should've walked right out and checked in at the nearest Hilton.  Ants kept appearing throughout the week.  The place was loud, meaning the building is poorly built. I heard every footstep, every door shut and the air conditioning unit and fridge were extremely loud. In order to get some sleep, I finally turned off the air conditioning, which made it tough to sleep because it got warm in my room.The 4th day, I found giant cockroaches in the bathroom.  I am not sure if they were cockroaches, actually - don't care - they were nearly 2 inches long, nasty and had no place in my room.  It poured one day last week, and when a colleague entered his room after a long day at the office, his room was flooded.  This is supposed to be a business friendly hotel.  I needed to print a document before heading into the office.  Went into the lobby where the computer and printer were.  A guest was on the computer (watching women's wrestling, ok whatever) - so I asked the receptionist if she could print a file for me using one of their computers in the back.  She couldn't because the computers were not turned on (and she's not sure how to log onto them).  She asked around, but no one in the facility at the time knew what to do.  So, she asked the women's wrestling fan to move aside for a minute (and he did).  However, the printer was broken!  Yep, very business friendly - eh?  Good thing that this was my last day, meaning I already checked out, my stuff was in the car and I planned to never ever look back.  I thought I would stay here because it was very close to the office - and thought I would save the company a few bucks.  Nope, never ever again!  I would not wish this place to my worst enemy.  Another reviewer mentioned, "Run, Don't Walk" - I couldn't agree more.  The only thing I want to do after 12-14 hours at the office, is to relax in my room (and not worry about bugs, flooding, etc)...  Hilton is a bit farther away and costs about $60 more / night.  Next time I visit Houston (which will likely be in a few weeks), I will pay the extra $60/ night (out of my own expense if I have to).MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>TowneplaceNWHouston, General Manager at TownePlace Suites Houston Northwest, responded to this reviewResponded September 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2012</t>
+  </si>
+  <si>
+    <t>Stayed here the week of September 9th - for an entire week.  Once I saw the red ants the minute I walked into my room (immediately after checking in) - I should've walked right out and checked in at the nearest Hilton.  
+Ants kept appearing throughout the week.  The place was loud, meaning the building is poorly built. I heard every footstep, every door shut and the air conditioning unit and fridge were extremely loud. In order to get some sleep, I finally turned off the air conditioning, which made it tough to sleep because it got warm in my room.
+The 4th day, I found giant cockroaches in the bathroom.  I am not sure if they were cockroaches, actually - don't care - they were nearly 2 inches long, nasty and had no place in my room.  
+It poured one day last week, and when a colleague entered his room after a long day at the office, his room was flooded.  
+This is supposed to be a business friendly hotel.  I needed to print a document before heading into the office.  Went into the lobby where the computer and printer were.  A guest was on the computer (watching women's wrestling, ok whatever) - so I asked the receptionist if she could print a file for me using one of their computers in the back.  She couldn't because the computers were not turned on (and she's not sure how to...Stayed here the week of September 9th - for an entire week.  Once I saw the red ants the minute I walked into my room (immediately after checking in) - I should've walked right out and checked in at the nearest Hilton.  Ants kept appearing throughout the week.  The place was loud, meaning the building is poorly built. I heard every footstep, every door shut and the air conditioning unit and fridge were extremely loud. In order to get some sleep, I finally turned off the air conditioning, which made it tough to sleep because it got warm in my room.The 4th day, I found giant cockroaches in the bathroom.  I am not sure if they were cockroaches, actually - don't care - they were nearly 2 inches long, nasty and had no place in my room.  It poured one day last week, and when a colleague entered his room after a long day at the office, his room was flooded.  This is supposed to be a business friendly hotel.  I needed to print a document before heading into the office.  Went into the lobby where the computer and printer were.  A guest was on the computer (watching women's wrestling, ok whatever) - so I asked the receptionist if she could print a file for me using one of their computers in the back.  She couldn't because the computers were not turned on (and she's not sure how to log onto them).  She asked around, but no one in the facility at the time knew what to do.  So, she asked the women's wrestling fan to move aside for a minute (and he did).  However, the printer was broken!  Yep, very business friendly - eh?  Good thing that this was my last day, meaning I already checked out, my stuff was in the car and I planned to never ever look back.  I thought I would stay here because it was very close to the office - and thought I would save the company a few bucks.  Nope, never ever again!  I would not wish this place to my worst enemy.  Another reviewer mentioned, "Run, Don't Walk" - I couldn't agree more.  The only thing I want to do after 12-14 hours at the office, is to relax in my room (and not worry about bugs, flooding, etc)...  Hilton is a bit farther away and costs about $60 more / night.  Next time I visit Houston (which will likely be in a few weeks), I will pay the extra $60/ night (out of my own expense if I have to).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r139310292-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>139310292</t>
+  </si>
+  <si>
+    <t>09/03/2012</t>
+  </si>
+  <si>
+    <t>Dinner, Breakfast and great staff!!!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel in August 2012 because it was tucked away from the heavy traffic and not too far from family in the city.  It has an apartment feel with 100 times the amenities.  The staff is friendly and they fix a complimentary dinner 2 nights a week with a complimentary breakfast 7 nights a week.  When I needed extra towels they went out of their way to bring them up to me even during late night hours. Super friendly staff too!   I highly recommend this hotel if you want a Marriott property without the extra fees for food and/or other amenities.  Great buy for the money!</t>
+  </si>
+  <si>
+    <t>August 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r137217257-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
@@ -1195,6 +1830,48 @@
     <t>This hotel has friendly staff.  That's the nicest thing to say about it.The hotel appears to be used by long-term residents (I'm guessing a few weeks or months at a time) who like to hang out drinking beer outside.  The halls smell (unpleasantly) of cooking being done in the rooms.  My room was noisy, as neighbors were watching TV until 1:30am.  The concept is great; the rooms have kitchens.  But the rooms and equipment look very aged (much older than the exterior of the hotel looks).  The rooms are not cleaned daily, which is appropriate for a longer stay apartment.The price is fairly low, though it doesn't seem a value.  If what you need is the most basic accommodation for a longer term, this might be a good fit.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r130081941-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130081941</t>
+  </si>
+  <si>
+    <t>05/17/2012</t>
+  </si>
+  <si>
+    <t>Housekeeping Needs Oversight</t>
+  </si>
+  <si>
+    <t>I stayed here on a Category 1 award.  This is the first time I have been disappointed in a Category 1 property.  I recognize it is a category 1 and have lower expectations, but housekeeping is not one of those lower expectations.
+I am Gold Elite with Marriott.  Gold elite is certainly not a superstar, but I do expect that my preferences will be honored when I submit them timely.  I requested a feather free room due to allergies.  Upon arrival, I notice that has not been honored.  I call down to the desk and ask if they can send up some feather free pillows, but I am told that is not possible as housekeeping is gone for the night and there are none at the front desk.  (I also requested extra towels which was not honored either, but that is not an allergy issue at least).  Recognizing that the hotel may be understaffed, I proceeded downstairs to the lobby to explain the situation in person.  She was helpful and did her best to arrange a solution and ultimately found some pillows in a spare guest room.
+The second issue is minor, but also relates to Housekeeping.  On the 2nd day, the used bath products were removed, but no replacement new bath products were provided.  Again, no extra towels were provided.
+These are somewhat minor things, but it seems to me that housekeeping may need a little more oversight to...I stayed here on a Category 1 award.  This is the first time I have been disappointed in a Category 1 property.  I recognize it is a category 1 and have lower expectations, but housekeeping is not one of those lower expectations.I am Gold Elite with Marriott.  Gold elite is certainly not a superstar, but I do expect that my preferences will be honored when I submit them timely.  I requested a feather free room due to allergies.  Upon arrival, I notice that has not been honored.  I call down to the desk and ask if they can send up some feather free pillows, but I am told that is not possible as housekeeping is gone for the night and there are none at the front desk.  (I also requested extra towels which was not honored either, but that is not an allergy issue at least).  Recognizing that the hotel may be understaffed, I proceeded downstairs to the lobby to explain the situation in person.  She was helpful and did her best to arrange a solution and ultimately found some pillows in a spare guest room.The second issue is minor, but also relates to Housekeeping.  On the 2nd day, the used bath products were removed, but no replacement new bath products were provided.  Again, no extra towels were provided.These are somewhat minor things, but it seems to me that housekeeping may need a little more oversight to ensure a consistent service is provided.As far as the room, etc., it was fine.  There was plenty of room, the pullout sofa seemed brand new (plastic still on the mattress), and we slept ok.I personally will choose a different property next time I need to stay in the area most likely.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>I stayed here on a Category 1 award.  This is the first time I have been disappointed in a Category 1 property.  I recognize it is a category 1 and have lower expectations, but housekeeping is not one of those lower expectations.
+I am Gold Elite with Marriott.  Gold elite is certainly not a superstar, but I do expect that my preferences will be honored when I submit them timely.  I requested a feather free room due to allergies.  Upon arrival, I notice that has not been honored.  I call down to the desk and ask if they can send up some feather free pillows, but I am told that is not possible as housekeeping is gone for the night and there are none at the front desk.  (I also requested extra towels which was not honored either, but that is not an allergy issue at least).  Recognizing that the hotel may be understaffed, I proceeded downstairs to the lobby to explain the situation in person.  She was helpful and did her best to arrange a solution and ultimately found some pillows in a spare guest room.
+The second issue is minor, but also relates to Housekeeping.  On the 2nd day, the used bath products were removed, but no replacement new bath products were provided.  Again, no extra towels were provided.
+These are somewhat minor things, but it seems to me that housekeeping may need a little more oversight to...I stayed here on a Category 1 award.  This is the first time I have been disappointed in a Category 1 property.  I recognize it is a category 1 and have lower expectations, but housekeeping is not one of those lower expectations.I am Gold Elite with Marriott.  Gold elite is certainly not a superstar, but I do expect that my preferences will be honored when I submit them timely.  I requested a feather free room due to allergies.  Upon arrival, I notice that has not been honored.  I call down to the desk and ask if they can send up some feather free pillows, but I am told that is not possible as housekeeping is gone for the night and there are none at the front desk.  (I also requested extra towels which was not honored either, but that is not an allergy issue at least).  Recognizing that the hotel may be understaffed, I proceeded downstairs to the lobby to explain the situation in person.  She was helpful and did her best to arrange a solution and ultimately found some pillows in a spare guest room.The second issue is minor, but also relates to Housekeeping.  On the 2nd day, the used bath products were removed, but no replacement new bath products were provided.  Again, no extra towels were provided.These are somewhat minor things, but it seems to me that housekeeping may need a little more oversight to ensure a consistent service is provided.As far as the room, etc., it was fine.  There was plenty of room, the pullout sofa seemed brand new (plastic still on the mattress), and we slept ok.I personally will choose a different property next time I need to stay in the area most likely.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r130072338-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130072338</t>
+  </si>
+  <si>
+    <t>05/16/2012</t>
+  </si>
+  <si>
+    <t>Homey and Great Location!</t>
+  </si>
+  <si>
+    <t>I can't ask for anything better from this hotel. It is walking distance from target, tinseltown cinema, walmart, and it is on same street as TGIF, Papadeux, Papasitos, Hooters, Denny's, etc! I stayed in a studio room with a kitchenette. On top of the double bed, the sofa bed can accommodate extra guests. The room is spacious and homey. The staffs are really friendly and helpful. the complimentary breakfast makes you feel at home. Stayed solo from April 12 - 16. 2012Returned as couple from May 11 - 13, 2012..</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r126452490-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
   </si>
   <si>
@@ -1247,6 +1924,21 @@
   </si>
   <si>
     <t>We stayed at the Towneplace Suites for one night when we needed to visit Houston.  We had originally booked one two-bedroom suite and an additional one-bedroom room.  However, at check-in, they had completely changed the reservation.  Apparently, they didn't have the original booking option available.  They put us in 3 single bedroom suites, and two of them were adjoining.  It did work out, but I didn't care for changing the reservations we made, because we made them that way for a reason.  Other than the booking issue, the stay was adequate and uneventful.  They provide a "grab and go" breakfast in a brown paper bag with portable breakfast eats.  We chose not to partake in the paper bag breakfast, and there was a nice diner (The Egg and I) about 500ft from the hotel, which was convenient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223187-r120927042-TownePlace_Suites_Houston_Northwest-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120927042</t>
+  </si>
+  <si>
+    <t>11/22/2011</t>
+  </si>
+  <si>
+    <t>Didn't enjoy after living in Resindence Inn</t>
+  </si>
+  <si>
+    <t>I am a platinum Marriott rewards memebr, still I didn't enjoy the stay in this Marriott property. The soaps provided in bathroom smells very bad. No hot breakfast. They don't provide any skin lotion or creame in their toileteries and despite being a platinum member I didn't get my assured guaranteed gift. I booked for 27 nights and moved out in 4 nights.</t>
   </si>
 </sst>
 </file>
@@ -1781,7 +2473,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1842,7 +2534,7 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>62</v>
@@ -1903,13 +2595,13 @@
         <v>70</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
         <v>71</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1970,20 +2662,14 @@
         <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>3</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4</v>
-      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>4</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
@@ -2037,7 +2723,7 @@
         <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2049,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
         <v>91</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>92</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7">
@@ -2071,55 +2757,53 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
         <v>94</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>95</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>96</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>97</v>
       </c>
-      <c r="L7" t="s">
-        <v>98</v>
-      </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
         <v>53</v>
       </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>4</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="X7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="Y7" t="s">
         <v>100</v>
@@ -2165,14 +2849,20 @@
         <v>106</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
@@ -2220,31 +2910,37 @@
         <v>114</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>115</v>
+      </c>
+      <c r="X9" t="s">
         <v>116</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>117</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="10">
@@ -2260,47 +2956,41 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
         <v>119</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>120</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>121</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>122</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>123</v>
       </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>124</v>
       </c>
-      <c r="O10" t="s">
-        <v>53</v>
-      </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
@@ -2348,27 +3038,37 @@
         <v>132</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
         <v>133</v>
       </c>
       <c r="O11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y11" t="s">
         <v>134</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
-      <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
-      <c r="Y11" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="12">
@@ -2408,15 +3108,15 @@
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="O12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="n">
         <v>5</v>
@@ -2428,10 +3128,14 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>125</v>
+      </c>
+      <c r="X12" t="s">
+        <v>126</v>
+      </c>
       <c r="Y12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
@@ -2447,52 +3151,58 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
         <v>140</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
-        <v>141</v>
-      </c>
-      <c r="J13" t="s">
-        <v>142</v>
-      </c>
-      <c r="K13" t="s">
-        <v>143</v>
-      </c>
-      <c r="L13" t="s">
-        <v>144</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2</v>
-      </c>
-      <c r="N13" t="s">
-        <v>145</v>
-      </c>
       <c r="O13" t="s">
-        <v>134</v>
-      </c>
-      <c r="P13" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="X13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
@@ -2508,7 +3218,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2517,45 +3227,43 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O14" t="s">
-        <v>134</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>4</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>4</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>156</v>
+      </c>
+      <c r="X14" t="s">
+        <v>157</v>
+      </c>
       <c r="Y14" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
@@ -2571,7 +3279,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2580,49 +3288,43 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="J15" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="O15" t="s">
-        <v>90</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>4</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="X15" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Y15" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
@@ -2638,7 +3340,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2647,32 +3349,34 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="J16" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K16" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
         <v>5</v>
@@ -2680,10 +3384,14 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>174</v>
+      </c>
+      <c r="X16" t="s">
+        <v>175</v>
+      </c>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
@@ -2699,7 +3407,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2708,43 +3416,47 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="O17" t="s">
         <v>53</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="X17" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="Y17" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18">
@@ -2760,7 +3472,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2769,47 +3481,45 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="J18" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="K18" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
         <v>182</v>
       </c>
       <c r="O18" t="s">
-        <v>134</v>
-      </c>
-      <c r="P18" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>3</v>
-      </c>
-      <c r="S18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>183</v>
-      </c>
-      <c r="X18" t="s">
-        <v>184</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19">
@@ -2825,7 +3535,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2834,22 +3544,22 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="J19" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="O19" t="s">
         <v>53</v>
@@ -2866,7 +3576,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20">
@@ -2882,7 +3592,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2891,41 +3601,45 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="J20" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="K20" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s">
+        <v>201</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>196</v>
       </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>197</v>
-      </c>
       <c r="O20" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
       <c r="R20" t="s"/>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21">
@@ -2941,7 +3655,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2950,43 +3664,43 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J21" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K21" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="O21" t="s">
         <v>53</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>208</v>
+      </c>
+      <c r="X21" t="s">
+        <v>209</v>
+      </c>
       <c r="Y21" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22">
@@ -3002,7 +3716,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3011,43 +3725,45 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="J22" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="K22" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="O22" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>210</v>
-      </c>
-      <c r="X22" t="s">
-        <v>211</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23">
@@ -3063,7 +3779,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3072,35 +3788,35 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="J23" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="K23" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="O23" t="s">
         <v>53</v>
       </c>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3108,7 +3824,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24">
@@ -3124,7 +3840,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3133,35 +3849,45 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="J24" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K24" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L24" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
-      <c r="P24" t="s"/>
+      <c r="N24" t="s">
+        <v>229</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25">
@@ -3177,7 +3903,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3186,30 +3912,32 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="J25" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K25" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L25" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
-      </c>
-      <c r="P25" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
       <c r="Q25" t="s"/>
       <c r="R25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
@@ -3220,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="X25" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Y25" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26">
@@ -3242,7 +3970,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3251,31 +3979,29 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="J26" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K26" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="O26" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>3</v>
-      </c>
+      <c r="R26" t="s"/>
       <c r="S26" t="n">
         <v>5</v>
       </c>
@@ -3286,12 +4012,8 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>241</v>
-      </c>
-      <c r="X26" t="s">
-        <v>242</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
         <v>243</v>
       </c>
@@ -3330,33 +4052,37 @@
         <v>248</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="O27" t="s">
-        <v>249</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
       <c r="R27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>249</v>
+      </c>
+      <c r="X27" t="s">
+        <v>250</v>
+      </c>
       <c r="Y27" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28">
@@ -3372,7 +4098,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3381,47 +4107,45 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J28" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K28" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L28" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
       </c>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
         <v>256</v>
-      </c>
-      <c r="X28" t="s">
-        <v>257</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="29">
@@ -3437,62 +4161,52 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>257</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>258</v>
+      </c>
+      <c r="J29" t="s">
         <v>259</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="K29" t="s">
         <v>260</v>
       </c>
-      <c r="J29" t="s">
+      <c r="L29" t="s">
         <v>261</v>
       </c>
-      <c r="K29" t="s">
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>229</v>
+      </c>
+      <c r="O29" t="s">
+        <v>71</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
         <v>262</v>
       </c>
-      <c r="L29" t="s">
+      <c r="X29" t="s">
         <v>263</v>
       </c>
-      <c r="M29" t="n">
-        <v>4</v>
-      </c>
-      <c r="N29" t="s">
+      <c r="Y29" t="s">
         <v>264</v>
-      </c>
-      <c r="O29" t="s">
-        <v>134</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
-      <c r="R29" t="n">
-        <v>4</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
-      <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>4</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="s">
-        <v>265</v>
-      </c>
-      <c r="X29" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="30">
@@ -3508,62 +4222,56 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>265</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>266</v>
+      </c>
+      <c r="J30" t="s">
+        <v>267</v>
+      </c>
+      <c r="K30" t="s">
         <v>268</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="L30" t="s">
         <v>269</v>
       </c>
-      <c r="J30" t="s">
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
         <v>270</v>
-      </c>
-      <c r="K30" t="s">
-        <v>271</v>
-      </c>
-      <c r="L30" t="s">
-        <v>272</v>
-      </c>
-      <c r="M30" t="n">
-        <v>4</v>
-      </c>
-      <c r="N30" t="s">
-        <v>273</v>
       </c>
       <c r="O30" t="s">
         <v>53</v>
       </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>4</v>
-      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
       <c r="R30" t="n">
-        <v>4</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="X30" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Y30" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31">
@@ -3579,62 +4287,48 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>274</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>275</v>
+      </c>
+      <c r="J31" t="s">
+        <v>276</v>
+      </c>
+      <c r="K31" t="s">
         <v>277</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="L31" t="s">
         <v>278</v>
       </c>
-      <c r="J31" t="s">
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
         <v>279</v>
       </c>
-      <c r="K31" t="s">
-        <v>280</v>
-      </c>
-      <c r="L31" t="s">
-        <v>281</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="s">
-        <v>282</v>
-      </c>
       <c r="O31" t="s">
-        <v>53</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>2</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>1</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>283</v>
-      </c>
-      <c r="X31" t="s">
-        <v>284</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32">
@@ -3650,62 +4344,54 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>280</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>281</v>
+      </c>
+      <c r="J32" t="s">
+        <v>282</v>
+      </c>
+      <c r="K32" t="s">
+        <v>283</v>
+      </c>
+      <c r="L32" t="s">
+        <v>284</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>285</v>
+      </c>
+      <c r="O32" t="s">
         <v>286</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
-        <v>287</v>
-      </c>
-      <c r="J32" t="s">
-        <v>288</v>
-      </c>
-      <c r="K32" t="s">
-        <v>289</v>
-      </c>
-      <c r="L32" t="s">
-        <v>290</v>
-      </c>
-      <c r="M32" t="n">
-        <v>4</v>
-      </c>
-      <c r="N32" t="s">
-        <v>291</v>
-      </c>
-      <c r="O32" t="s">
-        <v>134</v>
-      </c>
-      <c r="P32" t="n">
-        <v>4</v>
-      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R32" t="n">
-        <v>3</v>
-      </c>
-      <c r="S32" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>292</v>
-      </c>
-      <c r="X32" t="s">
-        <v>293</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33">
@@ -3721,7 +4407,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3730,53 +4416,49 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="J33" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K33" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="L33" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="O33" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
       </c>
-      <c r="Q33" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q33" t="s"/>
       <c r="R33" t="n">
         <v>3</v>
       </c>
-      <c r="S33" t="n">
-        <v>3</v>
-      </c>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="X33" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="Y33" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34">
@@ -3792,7 +4474,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3801,53 +4483,41 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="J34" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="K34" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="L34" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
         <v>300</v>
       </c>
       <c r="O34" t="s">
-        <v>134</v>
-      </c>
-      <c r="P34" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>301</v>
-      </c>
-      <c r="X34" t="s">
-        <v>302</v>
-      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35">
@@ -3863,7 +4533,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3872,34 +4542,32 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="J35" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="K35" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="L35" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
-      </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>306</v>
+      </c>
+      <c r="O35" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
         <v>5</v>
@@ -3910,7 +4578,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36">
@@ -3926,7 +4594,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3935,25 +4603,25 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="J36" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="K36" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="L36" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="O36" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -3965,13 +4633,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="X36" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="Y36" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37">
@@ -3987,7 +4655,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3996,53 +4664,43 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="J37" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="K37" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="L37" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="O37" t="s">
-        <v>134</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s">
-        <v>331</v>
-      </c>
-      <c r="X37" t="s">
-        <v>332</v>
-      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38">
@@ -4058,7 +4716,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4067,53 +4725,49 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="J38" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="K38" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="L38" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="O38" t="s">
         <v>53</v>
       </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
       <c r="R38" t="n">
         <v>5</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="X38" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="Y38" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39">
@@ -4129,7 +4783,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4138,38 +4792,32 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="J39" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="K39" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="L39" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
-      </c>
-      <c r="P39" t="n">
-        <v>2</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P39" t="s"/>
       <c r="Q39" t="n">
-        <v>3</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
         <v>3</v>
@@ -4177,14 +4825,10 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>349</v>
-      </c>
-      <c r="X39" t="s">
-        <v>350</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40">
@@ -4200,7 +4844,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4209,49 +4853,35 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="J40" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="K40" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="L40" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
-      <c r="N40" t="s">
-        <v>357</v>
-      </c>
-      <c r="O40" t="s">
-        <v>134</v>
-      </c>
-      <c r="P40" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>4</v>
-      </c>
-      <c r="R40" t="n">
-        <v>3</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3</v>
-      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>4</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41">
@@ -4267,7 +4897,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4276,53 +4906,47 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="J41" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="K41" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="L41" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="O41" t="s">
-        <v>134</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
       <c r="R41" t="n">
-        <v>3</v>
-      </c>
-      <c r="S41" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="X41" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="Y41" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42">
@@ -4338,7 +4962,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4347,53 +4971,45 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="J42" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="K42" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="L42" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="O42" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
-      </c>
-      <c r="R42" t="n">
-        <v>3</v>
-      </c>
-      <c r="S42" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>373</v>
-      </c>
-      <c r="X42" t="s">
-        <v>374</v>
-      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
     </row>
     <row r="43">
@@ -4409,7 +5025,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4418,49 +5034,47 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="J43" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="K43" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="L43" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="O43" t="s">
-        <v>134</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
       <c r="R43" t="n">
-        <v>3</v>
-      </c>
-      <c r="S43" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>365</v>
+      </c>
+      <c r="X43" t="s">
+        <v>366</v>
+      </c>
       <c r="Y43" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
     </row>
     <row r="44">
@@ -4476,7 +5090,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4485,49 +5099,49 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="J44" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="K44" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="L44" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="O44" t="s">
-        <v>134</v>
-      </c>
-      <c r="P44" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q44" t="n">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
         <v>3</v>
       </c>
-      <c r="R44" t="n">
-        <v>4</v>
-      </c>
       <c r="S44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>374</v>
+      </c>
+      <c r="X44" t="s">
+        <v>375</v>
+      </c>
       <c r="Y44" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45">
@@ -4543,7 +5157,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4552,34 +5166,34 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="J45" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="K45" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="L45" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
-      <c r="N45" t="s"/>
-      <c r="O45" t="s"/>
+      <c r="N45" t="s">
+        <v>373</v>
+      </c>
+      <c r="O45" t="s">
+        <v>286</v>
+      </c>
       <c r="P45" t="n">
         <v>5</v>
       </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q45" t="s"/>
       <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
         <v>5</v>
@@ -4590,7 +5204,7 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="46">
@@ -4606,7 +5220,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4615,38 +5229,32 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="J46" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="K46" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="L46" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
       </c>
-      <c r="Q46" t="n">
-        <v>3</v>
-      </c>
-      <c r="R46" t="n">
-        <v>3</v>
-      </c>
-      <c r="S46" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
         <v>4</v>
@@ -4654,10 +5262,2113 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>388</v>
+      </c>
+      <c r="X46" t="s">
+        <v>389</v>
+      </c>
       <c r="Y46" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>391</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>392</v>
+      </c>
+      <c r="J47" t="s">
+        <v>393</v>
+      </c>
+      <c r="K47" t="s">
+        <v>394</v>
+      </c>
+      <c r="L47" t="s">
+        <v>395</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>387</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>396</v>
+      </c>
+      <c r="X47" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>399</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
         <v>400</v>
+      </c>
+      <c r="J48" t="s">
+        <v>401</v>
+      </c>
+      <c r="K48" t="s">
+        <v>402</v>
+      </c>
+      <c r="L48" t="s">
+        <v>403</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>404</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>405</v>
+      </c>
+      <c r="X48" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>408</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>409</v>
+      </c>
+      <c r="J49" t="s">
+        <v>410</v>
+      </c>
+      <c r="K49" t="s">
+        <v>411</v>
+      </c>
+      <c r="L49" t="s">
+        <v>412</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>413</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>414</v>
+      </c>
+      <c r="X49" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>417</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>418</v>
+      </c>
+      <c r="J50" t="s">
+        <v>419</v>
+      </c>
+      <c r="K50" t="s">
+        <v>420</v>
+      </c>
+      <c r="L50" t="s">
+        <v>421</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>422</v>
+      </c>
+      <c r="O50" t="s">
+        <v>71</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>423</v>
+      </c>
+      <c r="X50" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>426</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>427</v>
+      </c>
+      <c r="J51" t="s">
+        <v>428</v>
+      </c>
+      <c r="K51" t="s">
+        <v>429</v>
+      </c>
+      <c r="L51" t="s">
+        <v>430</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>431</v>
+      </c>
+      <c r="O51" t="s">
+        <v>71</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>432</v>
+      </c>
+      <c r="X51" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>435</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>436</v>
+      </c>
+      <c r="J52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K52" t="s">
+        <v>438</v>
+      </c>
+      <c r="L52" t="s">
+        <v>439</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>440</v>
+      </c>
+      <c r="O52" t="s">
+        <v>71</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>441</v>
+      </c>
+      <c r="X52" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>444</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>445</v>
+      </c>
+      <c r="J53" t="s">
+        <v>446</v>
+      </c>
+      <c r="K53" t="s">
+        <v>447</v>
+      </c>
+      <c r="L53" t="s">
+        <v>448</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>431</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>449</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>450</v>
+      </c>
+      <c r="J54" t="s">
+        <v>451</v>
+      </c>
+      <c r="K54" t="s">
+        <v>452</v>
+      </c>
+      <c r="L54" t="s">
+        <v>453</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>454</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>455</v>
+      </c>
+      <c r="X54" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>458</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>459</v>
+      </c>
+      <c r="J55" t="s">
+        <v>460</v>
+      </c>
+      <c r="K55" t="s">
+        <v>461</v>
+      </c>
+      <c r="L55" t="s">
+        <v>462</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>463</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>464</v>
+      </c>
+      <c r="X55" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>467</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>468</v>
+      </c>
+      <c r="J56" t="s">
+        <v>469</v>
+      </c>
+      <c r="K56" t="s">
+        <v>470</v>
+      </c>
+      <c r="L56" t="s">
+        <v>471</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>463</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>464</v>
+      </c>
+      <c r="X56" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>473</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>474</v>
+      </c>
+      <c r="J57" t="s">
+        <v>475</v>
+      </c>
+      <c r="K57" t="s">
+        <v>476</v>
+      </c>
+      <c r="L57" t="s">
+        <v>477</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>478</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>464</v>
+      </c>
+      <c r="X57" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>480</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>481</v>
+      </c>
+      <c r="J58" t="s">
+        <v>482</v>
+      </c>
+      <c r="K58" t="s">
+        <v>483</v>
+      </c>
+      <c r="L58" t="s">
+        <v>484</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>485</v>
+      </c>
+      <c r="O58" t="s">
+        <v>71</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>487</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>488</v>
+      </c>
+      <c r="J59" t="s">
+        <v>482</v>
+      </c>
+      <c r="K59" t="s">
+        <v>489</v>
+      </c>
+      <c r="L59" t="s">
+        <v>490</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>492</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>493</v>
+      </c>
+      <c r="J60" t="s">
+        <v>494</v>
+      </c>
+      <c r="K60" t="s">
+        <v>495</v>
+      </c>
+      <c r="L60" t="s">
+        <v>496</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>485</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>497</v>
+      </c>
+      <c r="X60" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>500</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>501</v>
+      </c>
+      <c r="J61" t="s">
+        <v>502</v>
+      </c>
+      <c r="K61" t="s">
+        <v>503</v>
+      </c>
+      <c r="L61" t="s">
+        <v>504</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>505</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>506</v>
+      </c>
+      <c r="X61" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>509</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>510</v>
+      </c>
+      <c r="J62" t="s">
+        <v>511</v>
+      </c>
+      <c r="K62" t="s">
+        <v>512</v>
+      </c>
+      <c r="L62" t="s">
+        <v>513</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>505</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>514</v>
+      </c>
+      <c r="X62" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>517</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>518</v>
+      </c>
+      <c r="J63" t="s">
+        <v>519</v>
+      </c>
+      <c r="K63" t="s">
+        <v>520</v>
+      </c>
+      <c r="L63" t="s">
+        <v>521</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>522</v>
+      </c>
+      <c r="X63" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>525</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>526</v>
+      </c>
+      <c r="J64" t="s">
+        <v>519</v>
+      </c>
+      <c r="K64" t="s">
+        <v>527</v>
+      </c>
+      <c r="L64" t="s">
+        <v>528</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>529</v>
+      </c>
+      <c r="O64" t="s">
+        <v>71</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>522</v>
+      </c>
+      <c r="X64" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>531</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>532</v>
+      </c>
+      <c r="J65" t="s">
+        <v>533</v>
+      </c>
+      <c r="K65" t="s">
+        <v>534</v>
+      </c>
+      <c r="L65" t="s">
+        <v>535</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>536</v>
+      </c>
+      <c r="O65" t="s">
+        <v>71</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>537</v>
+      </c>
+      <c r="X65" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>540</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>541</v>
+      </c>
+      <c r="J66" t="s">
+        <v>542</v>
+      </c>
+      <c r="K66" t="s">
+        <v>543</v>
+      </c>
+      <c r="L66" t="s">
+        <v>544</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>545</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>547</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>548</v>
+      </c>
+      <c r="J67" t="s">
+        <v>549</v>
+      </c>
+      <c r="K67" t="s">
+        <v>550</v>
+      </c>
+      <c r="L67" t="s">
+        <v>551</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>552</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>553</v>
+      </c>
+      <c r="X67" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>556</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>557</v>
+      </c>
+      <c r="J68" t="s">
+        <v>558</v>
+      </c>
+      <c r="K68" t="s">
+        <v>559</v>
+      </c>
+      <c r="L68" t="s">
+        <v>560</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>561</v>
+      </c>
+      <c r="O68" t="s">
+        <v>71</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>562</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>563</v>
+      </c>
+      <c r="J69" t="s">
+        <v>564</v>
+      </c>
+      <c r="K69" t="s">
+        <v>565</v>
+      </c>
+      <c r="L69" t="s">
+        <v>566</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>567</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>568</v>
+      </c>
+      <c r="X69" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>571</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>572</v>
+      </c>
+      <c r="J70" t="s">
+        <v>573</v>
+      </c>
+      <c r="K70" t="s">
+        <v>574</v>
+      </c>
+      <c r="L70" t="s">
+        <v>575</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>567</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>576</v>
+      </c>
+      <c r="X70" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>579</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>580</v>
+      </c>
+      <c r="J71" t="s">
+        <v>581</v>
+      </c>
+      <c r="K71" t="s">
+        <v>582</v>
+      </c>
+      <c r="L71" t="s">
+        <v>583</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>584</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>586</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>587</v>
+      </c>
+      <c r="J72" t="s">
+        <v>588</v>
+      </c>
+      <c r="K72" t="s">
+        <v>589</v>
+      </c>
+      <c r="L72" t="s">
+        <v>590</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>591</v>
+      </c>
+      <c r="O72" t="s">
+        <v>71</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>593</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>594</v>
+      </c>
+      <c r="J73" t="s">
+        <v>595</v>
+      </c>
+      <c r="K73" t="s">
+        <v>596</v>
+      </c>
+      <c r="L73" t="s">
+        <v>597</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>591</v>
+      </c>
+      <c r="O73" t="s">
+        <v>124</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>598</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>599</v>
+      </c>
+      <c r="J74" t="s">
+        <v>600</v>
+      </c>
+      <c r="K74" t="s">
+        <v>601</v>
+      </c>
+      <c r="L74" t="s">
+        <v>602</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>603</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>604</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>605</v>
+      </c>
+      <c r="J75" t="s">
+        <v>606</v>
+      </c>
+      <c r="K75" t="s">
+        <v>607</v>
+      </c>
+      <c r="L75" t="s">
+        <v>608</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>609</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>610</v>
+      </c>
+      <c r="J76" t="s">
+        <v>611</v>
+      </c>
+      <c r="K76" t="s">
+        <v>612</v>
+      </c>
+      <c r="L76" t="s">
+        <v>613</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>614</v>
+      </c>
+      <c r="O76" t="s">
+        <v>71</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>38722</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>616</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>617</v>
+      </c>
+      <c r="J77" t="s">
+        <v>618</v>
+      </c>
+      <c r="K77" t="s">
+        <v>619</v>
+      </c>
+      <c r="L77" t="s">
+        <v>620</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>614</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>2</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>620</v>
       </c>
     </row>
   </sheetData>
